--- a/data/WHO Seasonal Risk Assessment Tool (SAMPLE).xlsx
+++ b/data/WHO Seasonal Risk Assessment Tool (SAMPLE).xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11214"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/steve.kerr/Documents/GitHub/riskassess/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CC83C97-AF1B-6949-AC92-ACFC8F8362F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05CB575A-F822-D647-B4B7-B3220AB565D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-10160" yWindow="-20200" windowWidth="30240" windowHeight="18960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17120" yWindow="-20980" windowWidth="38400" windowHeight="20980" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Introduction" sheetId="1" r:id="rId1"/>
+    <sheet name="README" sheetId="1" r:id="rId1"/>
     <sheet name="Indicator Metadata" sheetId="8" r:id="rId2"/>
     <sheet name="Indicator Data" sheetId="12" r:id="rId3"/>
     <sheet name="Pillar Weights" sheetId="15" r:id="rId4"/>
@@ -10446,7 +10446,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -10530,8 +10530,15 @@
       <color theme="1"/>
       <name val="Aptos Narrow"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -10550,6 +10557,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -10564,7 +10577,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -10636,18 +10649,6 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -10663,6 +10664,19 @@
     <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -11231,6 +11245,10 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <colors>
     <mruColors>
+      <color rgb="FFD9EAD3"/>
+      <color rgb="FFFCE5CD"/>
+      <color rgb="FFCFE2F3"/>
+      <color rgb="FFE6E6E6"/>
       <color rgb="FF6CC24A"/>
       <color rgb="FFF5A623"/>
       <color rgb="FF00ACA4"/>
@@ -11664,10 +11682,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <tabColor rgb="FFE6E6E6"/>
+  </sheetPr>
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C2"/>
+    <sheetView showGridLines="0" zoomScale="125" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -11683,11 +11704,11 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="238.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
     </row>
     <row r="3" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
@@ -11745,11 +11766,11 @@
       </c>
     </row>
     <row r="8" spans="1:3" ht="108" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="35" t="s">
+      <c r="A8" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="36"/>
-      <c r="C8" s="36"/>
+      <c r="B8" s="43"/>
+      <c r="C8" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -11763,10 +11784,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87BEE362-3726-294D-A7B5-2EE1005515FF}">
+  <sheetPr>
+    <tabColor rgb="FFCFE2F3"/>
+  </sheetPr>
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="116" zoomScaleNormal="117" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="117" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -12181,10 +12205,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDAFDAEB-B23B-E342-945F-36389A57F9E9}">
+  <sheetPr>
+    <tabColor rgb="FFCFE2F3"/>
+  </sheetPr>
   <dimension ref="A1:T31"/>
   <sheetViews>
-    <sheetView zoomScale="91" zoomScaleNormal="159" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView zoomScaleNormal="159" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="31.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -12348,7 +12375,7 @@
         <v>LOCC</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="139" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" ht="137" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
         <v>49</v>
       </c>
@@ -13197,18 +13224,10 @@
       <c r="B17" s="1" t="str">
         <v>Luhanska</v>
       </c>
-      <c r="C17" s="28">
-        <v>5</v>
-      </c>
-      <c r="D17" s="28">
-        <v>2</v>
-      </c>
-      <c r="E17" s="28">
-        <v>1</v>
-      </c>
-      <c r="F17" s="28">
-        <v>5</v>
-      </c>
+      <c r="C17" s="28"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28"/>
       <c r="G17" s="28"/>
       <c r="H17" s="28"/>
       <c r="I17" s="28"/>
@@ -13216,15 +13235,9 @@
       <c r="K17" s="28"/>
       <c r="L17" s="28"/>
       <c r="M17" s="28"/>
-      <c r="N17" s="28">
-        <v>5</v>
-      </c>
-      <c r="O17" s="28">
-        <v>5</v>
-      </c>
-      <c r="P17" s="28">
-        <v>3</v>
-      </c>
+      <c r="N17" s="28"/>
+      <c r="O17" s="28"/>
+      <c r="P17" s="28"/>
       <c r="Q17" s="28"/>
     </row>
     <row r="18" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -13961,10 +13974,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62B24BD2-9501-C24C-9544-CE39A2D144F0}">
+  <sheetPr>
+    <tabColor rgb="FFFCE5CD"/>
+  </sheetPr>
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView zoomScale="175" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView zoomScale="220" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -14030,15 +14046,18 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2441B2A0-8B31-BB4F-89F5-DCCD4E7A3D81}">
+  <sheetPr>
+    <tabColor rgb="FFFCE5CD"/>
+  </sheetPr>
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.83203125" style="23" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.1640625" style="23" customWidth="1"/>
     <col min="2" max="2" width="21.6640625" style="19" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.33203125" style="19" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" style="19" bestFit="1" customWidth="1"/>
@@ -14060,7 +14079,7 @@
         <v>46</v>
       </c>
       <c r="B2" s="19">
-        <f>SUMIF(C:C, A2,E:E)</f>
+        <f>SUMIF(C:C, A2,E:E )</f>
         <v>1</v>
       </c>
     </row>
@@ -14102,7 +14121,7 @@
         <v>3391</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A10" s="23" t="str" cm="1">
         <f t="array" ref="A10:C24">_xlfn._xlws.FILTER(
     Indicator_Metadata[[Indicator]:[Pillar]],
@@ -14128,7 +14147,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="23" t="str">
         <v>Elderly population (60 and Above)</v>
       </c>
@@ -14194,7 +14213,7 @@
         <v>6.9999999999999993E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="23" t="str">
         <v>Internally displaced people (IDP)</v>
       </c>
@@ -14238,7 +14257,7 @@
         <v>6.9999999999999993E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="23" t="str">
         <v>Unable to access health services</v>
       </c>
@@ -14260,7 +14279,7 @@
         <v>2.2500000000000003E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="23" t="str">
         <v>Unable to get necessary medicine</v>
       </c>
@@ -14451,10 +14470,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07F83AB1-6550-4F41-801E-D3FCC94B7941}">
-  <dimension ref="A1:Q34"/>
+  <sheetPr>
+    <tabColor rgb="FFD9EAD3"/>
+  </sheetPr>
+  <dimension ref="A1:T34"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="113" workbookViewId="0">
-      <selection activeCell="S30" sqref="S30"/>
+    <sheetView topLeftCell="A2" zoomScale="118" workbookViewId="0">
+      <selection activeCell="S8" sqref="S8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -14467,8 +14489,8 @@
     <col min="18" max="16384" width="10.83203125" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="67" x14ac:dyDescent="0.2">
-      <c r="C1" s="39" t="str" cm="1">
+    <row r="1" spans="1:20" ht="67" x14ac:dyDescent="0.2">
+      <c r="C1" s="35" t="str" cm="1">
         <f t="array" ref="C1">TRANSPOSE(
     _xlfn.XLOOKUP(
         C3,
@@ -14478,7 +14500,7 @@
 )</f>
         <v>Exposure</v>
       </c>
-      <c r="D1" s="39" t="str" cm="1">
+      <c r="D1" s="35" t="str" cm="1">
         <f t="array" ref="D1">TRANSPOSE(
     _xlfn.XLOOKUP(
         C3,
@@ -14488,7 +14510,7 @@
 )</f>
         <v>Exposure</v>
       </c>
-      <c r="E1" s="39" t="str" cm="1">
+      <c r="E1" s="35" t="str" cm="1">
         <f t="array" ref="E1">TRANSPOSE(
     _xlfn.XLOOKUP(
         D3,
@@ -14498,7 +14520,7 @@
 )</f>
         <v>Vulnerability</v>
       </c>
-      <c r="F1" s="39" t="str" cm="1">
+      <c r="F1" s="35" t="str" cm="1">
         <f t="array" ref="F1">TRANSPOSE(
     _xlfn.XLOOKUP(
         E3,
@@ -14508,7 +14530,7 @@
 )</f>
         <v>Vulnerability</v>
       </c>
-      <c r="G1" s="39" t="str" cm="1">
+      <c r="G1" s="35" t="str" cm="1">
         <f t="array" ref="G1">TRANSPOSE(
     _xlfn.XLOOKUP(
         F3,
@@ -14518,7 +14540,7 @@
 )</f>
         <v>Vulnerability</v>
       </c>
-      <c r="H1" s="39" t="str" cm="1">
+      <c r="H1" s="35" t="str" cm="1">
         <f t="array" ref="H1">TRANSPOSE(
     _xlfn.XLOOKUP(
         G3,
@@ -14528,7 +14550,7 @@
 )</f>
         <v>Vulnerability</v>
       </c>
-      <c r="I1" s="39" t="str" cm="1">
+      <c r="I1" s="35" t="str" cm="1">
         <f t="array" ref="I1">TRANSPOSE(
     _xlfn.XLOOKUP(
         H3,
@@ -14538,7 +14560,7 @@
 )</f>
         <v>Vulnerability</v>
       </c>
-      <c r="J1" s="39" t="str" cm="1">
+      <c r="J1" s="35" t="str" cm="1">
         <f t="array" ref="J1">TRANSPOSE(
     _xlfn.XLOOKUP(
         I3,
@@ -14548,7 +14570,7 @@
 )</f>
         <v>LOCC</v>
       </c>
-      <c r="K1" s="39" t="str" cm="1">
+      <c r="K1" s="35" t="str" cm="1">
         <f t="array" ref="K1">TRANSPOSE(
     _xlfn.XLOOKUP(
         J3,
@@ -14558,7 +14580,7 @@
 )</f>
         <v>LOCC</v>
       </c>
-      <c r="L1" s="39" t="str" cm="1">
+      <c r="L1" s="35" t="str" cm="1">
         <f t="array" ref="L1">TRANSPOSE(
     _xlfn.XLOOKUP(
         K3,
@@ -14568,7 +14590,7 @@
 )</f>
         <v>LOCC</v>
       </c>
-      <c r="M1" s="39" t="str" cm="1">
+      <c r="M1" s="35" t="str" cm="1">
         <f t="array" ref="M1">TRANSPOSE(
     _xlfn.XLOOKUP(
         L3,
@@ -14578,7 +14600,7 @@
 )</f>
         <v>LOCC</v>
       </c>
-      <c r="N1" s="39" t="str" cm="1">
+      <c r="N1" s="35" t="str" cm="1">
         <f t="array" ref="N1">TRANSPOSE(
     _xlfn.XLOOKUP(
         M3,
@@ -14588,7 +14610,7 @@
 )</f>
         <v>LOCC</v>
       </c>
-      <c r="O1" s="39" t="str" cm="1">
+      <c r="O1" s="35" t="str" cm="1">
         <f t="array" ref="O1">TRANSPOSE(
     _xlfn.XLOOKUP(
         N3,
@@ -14598,7 +14620,7 @@
 )</f>
         <v>LOCC</v>
       </c>
-      <c r="P1" s="39" t="str" cm="1">
+      <c r="P1" s="35" t="str" cm="1">
         <f t="array" ref="P1">TRANSPOSE(
     _xlfn.XLOOKUP(
         O3,
@@ -14608,7 +14630,7 @@
 )</f>
         <v>LOCC</v>
       </c>
-      <c r="Q1" s="39" t="str" cm="1">
+      <c r="Q1" s="35" t="str" cm="1">
         <f t="array" ref="Q1">TRANSPOSE(
     _xlfn.XLOOKUP(
         P3,
@@ -14619,8 +14641,8 @@
         <v>LOCC</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="138" x14ac:dyDescent="0.2">
-      <c r="C2" s="39" t="str" cm="1">
+    <row r="2" spans="1:20" ht="137" x14ac:dyDescent="0.2">
+      <c r="C2" s="35" t="str" cm="1">
         <f t="array" ref="C2">TRANSPOSE(
     _xlfn.XLOOKUP(
         C3,
@@ -14630,7 +14652,7 @@
 )</f>
         <v>Hazard</v>
       </c>
-      <c r="D2" s="39" t="str" cm="1">
+      <c r="D2" s="35" t="str" cm="1">
         <f t="array" ref="D2">TRANSPOSE(
     _xlfn.XLOOKUP(
         D3,
@@ -14640,7 +14662,7 @@
 )</f>
         <v>Vulnerable Population</v>
       </c>
-      <c r="E2" s="39" t="str" cm="1">
+      <c r="E2" s="35" t="str" cm="1">
         <f t="array" ref="E2">TRANSPOSE(
     _xlfn.XLOOKUP(
         E3,
@@ -14650,7 +14672,7 @@
 )</f>
         <v>Vulnerable Population</v>
       </c>
-      <c r="F2" s="39" t="str" cm="1">
+      <c r="F2" s="35" t="str" cm="1">
         <f t="array" ref="F2">TRANSPOSE(
     _xlfn.XLOOKUP(
         F3,
@@ -14660,7 +14682,7 @@
 )</f>
         <v>Vulnerable Population</v>
       </c>
-      <c r="G2" s="39" t="str" cm="1">
+      <c r="G2" s="35" t="str" cm="1">
         <f t="array" ref="G2">TRANSPOSE(
     _xlfn.XLOOKUP(
         G3,
@@ -14670,7 +14692,7 @@
 )</f>
         <v>Socioeconomic</v>
       </c>
-      <c r="H2" s="39" t="str" cm="1">
+      <c r="H2" s="35" t="str" cm="1">
         <f t="array" ref="H2">TRANSPOSE(
     _xlfn.XLOOKUP(
         H3,
@@ -14680,7 +14702,7 @@
 )</f>
         <v>Socioeconomic</v>
       </c>
-      <c r="I2" s="39" t="str" cm="1">
+      <c r="I2" s="35" t="str" cm="1">
         <f t="array" ref="I2">TRANSPOSE(
     _xlfn.XLOOKUP(
         I3,
@@ -14690,7 +14712,7 @@
 )</f>
         <v>Health Service Accessibility</v>
       </c>
-      <c r="J2" s="39" t="str" cm="1">
+      <c r="J2" s="35" t="str" cm="1">
         <f t="array" ref="J2">TRANSPOSE(
     _xlfn.XLOOKUP(
         J3,
@@ -14700,7 +14722,7 @@
 )</f>
         <v>Health Service Accessibility</v>
       </c>
-      <c r="K2" s="39" t="str" cm="1">
+      <c r="K2" s="35" t="str" cm="1">
         <f t="array" ref="K2">TRANSPOSE(
     _xlfn.XLOOKUP(
         K3,
@@ -14710,7 +14732,7 @@
 )</f>
         <v>Health Service Accessibility</v>
       </c>
-      <c r="L2" s="39" t="str" cm="1">
+      <c r="L2" s="35" t="str" cm="1">
         <f t="array" ref="L2">TRANSPOSE(
     _xlfn.XLOOKUP(
         L3,
@@ -14720,7 +14742,7 @@
 )</f>
         <v>Health Service Accessibility</v>
       </c>
-      <c r="M2" s="39" t="str" cm="1">
+      <c r="M2" s="35" t="str" cm="1">
         <f t="array" ref="M2">TRANSPOSE(
     _xlfn.XLOOKUP(
         M3,
@@ -14730,7 +14752,7 @@
 )</f>
         <v>Health Service Accessibility</v>
       </c>
-      <c r="N2" s="39" t="str" cm="1">
+      <c r="N2" s="35" t="str" cm="1">
         <f t="array" ref="N2">TRANSPOSE(
     _xlfn.XLOOKUP(
         N3,
@@ -14740,7 +14762,7 @@
 )</f>
         <v>Health Service Accessibility</v>
       </c>
-      <c r="O2" s="39" t="str" cm="1">
+      <c r="O2" s="35" t="str" cm="1">
         <f t="array" ref="O2">TRANSPOSE(
     _xlfn.XLOOKUP(
         O3,
@@ -14750,7 +14772,7 @@
 )</f>
         <v>Public Infrastructure</v>
       </c>
-      <c r="P2" s="39" t="str" cm="1">
+      <c r="P2" s="35" t="str" cm="1">
         <f t="array" ref="P2">TRANSPOSE(
     _xlfn.XLOOKUP(
         P3,
@@ -14760,7 +14782,7 @@
 )</f>
         <v>Safety and Security</v>
       </c>
-      <c r="Q2" s="39" t="str" cm="1">
+      <c r="Q2" s="35" t="str" cm="1">
         <f t="array" ref="Q2">TRANSPOSE(
     _xlfn.XLOOKUP(
         Q3,
@@ -14771,136 +14793,136 @@
         <v>Safety and Security</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="132" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20" ht="132" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="13"/>
       <c r="B3" s="13"/>
-      <c r="C3" s="40" t="str" cm="1">
+      <c r="C3" s="36" t="str" cm="1">
         <f t="array" ref="C3:Q3">TRANSPOSE(
     _xlfn._xlws.FILTER(Indicator_Metadata[Indicator],
            Indicator_Metadata[Include]=TRUE)
 )</f>
         <v>Average number of days below 10*C from October to March, Severity Score</v>
       </c>
-      <c r="D3" s="40" t="str">
+      <c r="D3" s="36" t="str">
         <v>Elderly population (60 and Above)</v>
       </c>
-      <c r="E3" s="40" t="str">
+      <c r="E3" s="36" t="str">
         <v>Infant population (Under 5)</v>
       </c>
-      <c r="F3" s="40" t="str">
+      <c r="F3" s="36" t="str">
         <v>Chronic illness (Hypertension)</v>
       </c>
-      <c r="G3" s="40" t="str">
+      <c r="G3" s="36" t="str">
         <v>Internally displaced people (IDP)</v>
       </c>
-      <c r="H3" s="40" t="str">
+      <c r="H3" s="36" t="str">
         <v>Average household income</v>
       </c>
-      <c r="I3" s="40" t="str">
+      <c r="I3" s="36" t="str">
         <v>Unable to access health services</v>
       </c>
-      <c r="J3" s="40" t="str">
+      <c r="J3" s="36" t="str">
         <v>Unable to get necessary medicine</v>
       </c>
-      <c r="K3" s="40" t="str">
+      <c r="K3" s="36" t="str">
         <v>Functioning of health facilities</v>
       </c>
-      <c r="L3" s="40" t="str">
+      <c r="L3" s="36" t="str">
         <v xml:space="preserve">Health facility power availability </v>
       </c>
-      <c r="M3" s="40" t="str">
+      <c r="M3" s="36" t="str">
         <v xml:space="preserve">Health facility heating availablity </v>
       </c>
-      <c r="N3" s="40" t="str">
+      <c r="N3" s="36" t="str">
         <v>Health cluster partner support</v>
       </c>
-      <c r="O3" s="40" t="str">
+      <c r="O3" s="36" t="str">
         <v xml:space="preserve">Frequency and duration of power outage </v>
       </c>
-      <c r="P3" s="40" t="str">
+      <c r="P3" s="36" t="str">
         <v>Attacks on healthcare  (SSA)</v>
       </c>
-      <c r="Q3" s="40" t="str">
+      <c r="Q3" s="36" t="str">
         <v>Conflict classification</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" s="13"/>
       <c r="B4" s="13"/>
-      <c r="C4" s="41">
+      <c r="C4" s="37">
         <f>_xlfn.XLOOKUP(C$3, 'Indicator Weights'!$A:$A, 'Indicator Weights'!$F:$F)</f>
         <v>0.2</v>
       </c>
-      <c r="D4" s="41">
+      <c r="D4" s="37">
         <f>_xlfn.XLOOKUP(D$3, 'Indicator Weights'!$A:$A, 'Indicator Weights'!$F:$F)</f>
         <v>6.9999999999999993E-2</v>
       </c>
-      <c r="E4" s="41">
+      <c r="E4" s="37">
         <f>_xlfn.XLOOKUP(E$3, 'Indicator Weights'!$A:$A, 'Indicator Weights'!$F:$F)</f>
         <v>6.9999999999999993E-2</v>
       </c>
-      <c r="F4" s="41">
+      <c r="F4" s="37">
         <f>_xlfn.XLOOKUP(F$3, 'Indicator Weights'!$A:$A, 'Indicator Weights'!$F:$F)</f>
         <v>6.9999999999999993E-2</v>
       </c>
-      <c r="G4" s="41">
+      <c r="G4" s="37">
         <f>_xlfn.XLOOKUP(G$3, 'Indicator Weights'!$A:$A, 'Indicator Weights'!$F:$F)</f>
         <v>6.9999999999999993E-2</v>
       </c>
-      <c r="H4" s="41">
+      <c r="H4" s="37">
         <f>_xlfn.XLOOKUP(H$3, 'Indicator Weights'!$A:$A, 'Indicator Weights'!$F:$F)</f>
         <v>6.9999999999999993E-2</v>
       </c>
-      <c r="I4" s="41">
+      <c r="I4" s="37">
         <f>_xlfn.XLOOKUP(I$3, 'Indicator Weights'!$A:$A, 'Indicator Weights'!$F:$F)</f>
         <v>2.2500000000000003E-2</v>
       </c>
-      <c r="J4" s="41">
+      <c r="J4" s="37">
         <f>_xlfn.XLOOKUP(J$3, 'Indicator Weights'!$A:$A, 'Indicator Weights'!$F:$F)</f>
         <v>2.2500000000000003E-2</v>
       </c>
-      <c r="K4" s="41">
+      <c r="K4" s="37">
         <f>_xlfn.XLOOKUP(K$3, 'Indicator Weights'!$A:$A, 'Indicator Weights'!$F:$F)</f>
         <v>2.2500000000000003E-2</v>
       </c>
-      <c r="L4" s="41">
+      <c r="L4" s="37">
         <f>_xlfn.XLOOKUP(L$3, 'Indicator Weights'!$A:$A, 'Indicator Weights'!$F:$F)</f>
         <v>2.2500000000000003E-2</v>
       </c>
-      <c r="M4" s="41">
+      <c r="M4" s="37">
         <f>_xlfn.XLOOKUP(M$3, 'Indicator Weights'!$A:$A, 'Indicator Weights'!$F:$F)</f>
         <v>2.2500000000000003E-2</v>
       </c>
-      <c r="N4" s="41">
+      <c r="N4" s="37">
         <f>_xlfn.XLOOKUP(N$3, 'Indicator Weights'!$A:$A, 'Indicator Weights'!$F:$F)</f>
         <v>2.2500000000000003E-2</v>
       </c>
-      <c r="O4" s="41">
+      <c r="O4" s="37">
         <f>_xlfn.XLOOKUP(O$3, 'Indicator Weights'!$A:$A, 'Indicator Weights'!$F:$F)</f>
         <v>9.0000000000000011E-2</v>
       </c>
-      <c r="P4" s="41">
+      <c r="P4" s="37">
         <f>_xlfn.XLOOKUP(P$3, 'Indicator Weights'!$A:$A, 'Indicator Weights'!$F:$F)</f>
         <v>0.1125</v>
       </c>
-      <c r="Q4" s="41">
+      <c r="Q4" s="37">
         <f>_xlfn.XLOOKUP(Q$3, 'Indicator Weights'!$A:$A, 'Indicator Weights'!$F:$F)</f>
         <v>0.1125</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="C5" s="41"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="C5" s="37"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
         <v>3386</v>
       </c>
       <c r="B6" s="13" t="s">
         <v>3385</v>
       </c>
-      <c r="C6" s="41"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="C6" s="37"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="str" cm="1">
         <f t="array" ref="A7:A34">_xlfn._xlws.FILTER(Geo_Reference[Member State],Geo_Reference[ISO3]="UKR")</f>
         <v>Ukraine</v>
@@ -14909,743 +14931,744 @@
         <f t="array" ref="B7:B34">_xlfn._xlws.FILTER(Geo_Reference[Administrative Level 1], Geo_Reference[ISO3] ="UKR")</f>
         <v>Avtonomna Respublika Krym</v>
       </c>
-      <c r="C7" s="42" t="str">
+      <c r="C7" s="38" t="str">
         <f>IF(OR(ISBLANK('Indicator Data'!C4), ISBLANK(C$4)), "", 'Indicator Data'!C4 * C$4)</f>
         <v/>
       </c>
-      <c r="D7" s="42" t="str">
+      <c r="D7" s="38" t="str">
         <f>IF(OR(ISBLANK('Indicator Data'!D4), ISBLANK(D$4)), "", 'Indicator Data'!D4 * D$4)</f>
         <v/>
       </c>
-      <c r="E7" s="42" t="str">
+      <c r="E7" s="38" t="str">
         <f>IF(OR(ISBLANK('Indicator Data'!E4), ISBLANK(E$4)), "", 'Indicator Data'!E4 * E$4)</f>
         <v/>
       </c>
-      <c r="F7" s="42" t="str">
+      <c r="F7" s="38" t="str">
         <f>IF(OR(ISBLANK('Indicator Data'!F4), ISBLANK(F$4)), "", 'Indicator Data'!F4 * F$4)</f>
         <v/>
       </c>
-      <c r="G7" s="42" t="str">
+      <c r="G7" s="38" t="str">
         <f>IF(OR(ISBLANK('Indicator Data'!G4), ISBLANK(G$4)), "", 'Indicator Data'!G4 * G$4)</f>
         <v/>
       </c>
-      <c r="H7" s="42" t="str">
+      <c r="H7" s="38" t="str">
         <f>IF(OR(ISBLANK('Indicator Data'!H4), ISBLANK(H$4)), "", 'Indicator Data'!H4 * H$4)</f>
         <v/>
       </c>
-      <c r="I7" s="42" t="str">
+      <c r="I7" s="38" t="str">
         <f>IF(OR(ISBLANK('Indicator Data'!I4), ISBLANK(I$4)), "", 'Indicator Data'!I4 * I$4)</f>
         <v/>
       </c>
-      <c r="J7" s="42" t="str">
+      <c r="J7" s="38" t="str">
         <f>IF(OR(ISBLANK('Indicator Data'!J4), ISBLANK(J$4)), "", 'Indicator Data'!J4 * J$4)</f>
         <v/>
       </c>
-      <c r="K7" s="42" t="str">
+      <c r="K7" s="38" t="str">
         <f>IF(OR(ISBLANK('Indicator Data'!K4), ISBLANK(K$4)), "", 'Indicator Data'!K4 * K$4)</f>
         <v/>
       </c>
-      <c r="L7" s="42" t="str">
+      <c r="L7" s="38" t="str">
         <f>IF(OR(ISBLANK('Indicator Data'!L4), ISBLANK(L$4)), "", 'Indicator Data'!L4 * L$4)</f>
         <v/>
       </c>
-      <c r="M7" s="42" t="str">
+      <c r="M7" s="38" t="str">
         <f>IF(OR(ISBLANK('Indicator Data'!M4), ISBLANK(M$4)), "", 'Indicator Data'!M4 * M$4)</f>
         <v/>
       </c>
-      <c r="N7" s="42" t="str">
+      <c r="N7" s="38" t="str">
         <f>IF(OR(ISBLANK('Indicator Data'!N4), ISBLANK(N$4)), "", 'Indicator Data'!N4 * N$4)</f>
         <v/>
       </c>
-      <c r="O7" s="42" t="str">
+      <c r="O7" s="38" t="str">
         <f>IF(OR(ISBLANK('Indicator Data'!O4), ISBLANK(O$4)), "", 'Indicator Data'!O4 * O$4)</f>
         <v/>
       </c>
-      <c r="P7" s="42" t="str">
+      <c r="P7" s="38" t="str">
         <f>IF(OR(ISBLANK('Indicator Data'!P4), ISBLANK(P$4)), "", 'Indicator Data'!P4 * P$4)</f>
         <v/>
       </c>
-      <c r="Q7" s="42" t="str">
+      <c r="Q7" s="38" t="str">
         <f>IF(OR(ISBLANK('Indicator Data'!Q4), ISBLANK(Q$4)), "", 'Indicator Data'!Q4 * Q$4)</f>
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="str">
         <v>Ukraine</v>
       </c>
       <c r="B8" s="14" t="str">
         <v>Cherkaska</v>
       </c>
-      <c r="C8" s="42">
+      <c r="C8" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!C5), ISBLANK(C$4)), "", 'Indicator Data'!C5 * C$4)</f>
         <v>0.8</v>
       </c>
-      <c r="D8" s="42">
+      <c r="D8" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!D5), ISBLANK(D$4)), "", 'Indicator Data'!D5 * D$4)</f>
         <v>0.20999999999999996</v>
       </c>
-      <c r="E8" s="42">
+      <c r="E8" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!E5), ISBLANK(E$4)), "", 'Indicator Data'!E5 * E$4)</f>
         <v>0.13999999999999999</v>
       </c>
-      <c r="F8" s="42">
+      <c r="F8" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!F5), ISBLANK(F$4)), "", 'Indicator Data'!F5 * F$4)</f>
         <v>0.13999999999999999</v>
       </c>
-      <c r="G8" s="42">
+      <c r="G8" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!G5), ISBLANK(G$4)), "", 'Indicator Data'!G5 * G$4)</f>
         <v>0.27999999999999997</v>
       </c>
-      <c r="H8" s="42">
+      <c r="H8" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!H5), ISBLANK(H$4)), "", 'Indicator Data'!H5 * H$4)</f>
         <v>0.20999999999999996</v>
       </c>
-      <c r="I8" s="42">
+      <c r="I8" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!I5), ISBLANK(I$4)), "", 'Indicator Data'!I5 * I$4)</f>
         <v>6.7500000000000004E-2</v>
       </c>
-      <c r="J8" s="42">
+      <c r="J8" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!J5), ISBLANK(J$4)), "", 'Indicator Data'!J5 * J$4)</f>
         <v>9.0000000000000011E-2</v>
       </c>
-      <c r="K8" s="42">
+      <c r="K8" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!K5), ISBLANK(K$4)), "", 'Indicator Data'!K5 * K$4)</f>
         <v>4.5000000000000005E-2</v>
       </c>
-      <c r="L8" s="42">
+      <c r="L8" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!L5), ISBLANK(L$4)), "", 'Indicator Data'!L5 * L$4)</f>
         <v>2.2500000000000003E-2</v>
       </c>
-      <c r="M8" s="42">
+      <c r="M8" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!M5), ISBLANK(M$4)), "", 'Indicator Data'!M5 * M$4)</f>
         <v>4.5000000000000005E-2</v>
       </c>
-      <c r="N8" s="42">
+      <c r="N8" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!N5), ISBLANK(N$4)), "", 'Indicator Data'!N5 * N$4)</f>
         <v>9.0000000000000011E-2</v>
       </c>
-      <c r="O8" s="42">
+      <c r="O8" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!O5), ISBLANK(O$4)), "", 'Indicator Data'!O5 * O$4)</f>
         <v>9.0000000000000011E-2</v>
       </c>
-      <c r="P8" s="42">
+      <c r="P8" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!P5), ISBLANK(P$4)), "", 'Indicator Data'!P5 * P$4)</f>
         <v>0.22500000000000001</v>
       </c>
-      <c r="Q8" s="42">
+      <c r="Q8" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!Q5), ISBLANK(Q$4)), "", 'Indicator Data'!Q5 * Q$4)</f>
         <v>0.1125</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="str">
         <v>Ukraine</v>
       </c>
       <c r="B9" s="14" t="str">
         <v>Chernihivska</v>
       </c>
-      <c r="C9" s="42">
+      <c r="C9" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!C6), ISBLANK(C$4)), "", 'Indicator Data'!C6 * C$4)</f>
         <v>1</v>
       </c>
-      <c r="D9" s="42">
+      <c r="D9" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!D6), ISBLANK(D$4)), "", 'Indicator Data'!D6 * D$4)</f>
         <v>0.20999999999999996</v>
       </c>
-      <c r="E9" s="42">
+      <c r="E9" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!E6), ISBLANK(E$4)), "", 'Indicator Data'!E6 * E$4)</f>
         <v>0.13999999999999999</v>
       </c>
-      <c r="F9" s="42">
+      <c r="F9" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!F6), ISBLANK(F$4)), "", 'Indicator Data'!F6 * F$4)</f>
         <v>0.20999999999999996</v>
       </c>
-      <c r="G9" s="42">
+      <c r="G9" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!G6), ISBLANK(G$4)), "", 'Indicator Data'!G6 * G$4)</f>
         <v>0.13999999999999999</v>
       </c>
-      <c r="H9" s="42">
+      <c r="H9" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!H6), ISBLANK(H$4)), "", 'Indicator Data'!H6 * H$4)</f>
         <v>0.35</v>
       </c>
-      <c r="I9" s="42">
+      <c r="I9" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!I6), ISBLANK(I$4)), "", 'Indicator Data'!I6 * I$4)</f>
         <v>6.7500000000000004E-2</v>
       </c>
-      <c r="J9" s="42">
+      <c r="J9" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!J6), ISBLANK(J$4)), "", 'Indicator Data'!J6 * J$4)</f>
         <v>4.5000000000000005E-2</v>
       </c>
-      <c r="K9" s="42">
+      <c r="K9" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!K6), ISBLANK(K$4)), "", 'Indicator Data'!K6 * K$4)</f>
         <v>4.5000000000000005E-2</v>
       </c>
-      <c r="L9" s="42">
+      <c r="L9" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!L6), ISBLANK(L$4)), "", 'Indicator Data'!L6 * L$4)</f>
         <v>9.0000000000000011E-2</v>
       </c>
-      <c r="M9" s="42">
+      <c r="M9" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!M6), ISBLANK(M$4)), "", 'Indicator Data'!M6 * M$4)</f>
         <v>4.5000000000000005E-2</v>
       </c>
-      <c r="N9" s="42">
+      <c r="N9" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!N6), ISBLANK(N$4)), "", 'Indicator Data'!N6 * N$4)</f>
         <v>6.7500000000000004E-2</v>
       </c>
-      <c r="O9" s="42">
+      <c r="O9" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!O6), ISBLANK(O$4)), "", 'Indicator Data'!O6 * O$4)</f>
         <v>0.27</v>
       </c>
-      <c r="P9" s="42">
+      <c r="P9" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!P6), ISBLANK(P$4)), "", 'Indicator Data'!P6 * P$4)</f>
         <v>0.33750000000000002</v>
       </c>
-      <c r="Q9" s="42">
+      <c r="Q9" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!Q6), ISBLANK(Q$4)), "", 'Indicator Data'!Q6 * Q$4)</f>
         <v>0.33750000000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="str">
         <v>Ukraine</v>
       </c>
       <c r="B10" s="14" t="str">
         <v>Chernivetska</v>
       </c>
-      <c r="C10" s="42">
+      <c r="C10" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!C7), ISBLANK(C$4)), "", 'Indicator Data'!C7 * C$4)</f>
         <v>0.8</v>
       </c>
-      <c r="D10" s="42">
+      <c r="D10" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!D7), ISBLANK(D$4)), "", 'Indicator Data'!D7 * D$4)</f>
         <v>0.13999999999999999</v>
       </c>
-      <c r="E10" s="42">
+      <c r="E10" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!E7), ISBLANK(E$4)), "", 'Indicator Data'!E7 * E$4)</f>
         <v>0.13999999999999999</v>
       </c>
-      <c r="F10" s="42">
+      <c r="F10" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!F7), ISBLANK(F$4)), "", 'Indicator Data'!F7 * F$4)</f>
         <v>6.9999999999999993E-2</v>
       </c>
-      <c r="G10" s="42">
+      <c r="G10" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!G7), ISBLANK(G$4)), "", 'Indicator Data'!G7 * G$4)</f>
         <v>0.13999999999999999</v>
       </c>
-      <c r="H10" s="42">
+      <c r="H10" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!H7), ISBLANK(H$4)), "", 'Indicator Data'!H7 * H$4)</f>
         <v>0.20999999999999996</v>
       </c>
-      <c r="I10" s="42">
+      <c r="I10" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!I7), ISBLANK(I$4)), "", 'Indicator Data'!I7 * I$4)</f>
         <v>2.2500000000000003E-2</v>
       </c>
-      <c r="J10" s="42">
+      <c r="J10" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!J7), ISBLANK(J$4)), "", 'Indicator Data'!J7 * J$4)</f>
         <v>4.5000000000000005E-2</v>
       </c>
-      <c r="K10" s="42">
+      <c r="K10" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!K7), ISBLANK(K$4)), "", 'Indicator Data'!K7 * K$4)</f>
         <v>2.2500000000000003E-2</v>
       </c>
-      <c r="L10" s="42">
+      <c r="L10" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!L7), ISBLANK(L$4)), "", 'Indicator Data'!L7 * L$4)</f>
         <v>4.5000000000000005E-2</v>
       </c>
-      <c r="M10" s="42">
+      <c r="M10" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!M7), ISBLANK(M$4)), "", 'Indicator Data'!M7 * M$4)</f>
         <v>6.7500000000000004E-2</v>
       </c>
-      <c r="N10" s="42">
+      <c r="N10" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!N7), ISBLANK(N$4)), "", 'Indicator Data'!N7 * N$4)</f>
         <v>6.7500000000000004E-2</v>
       </c>
-      <c r="O10" s="42">
+      <c r="O10" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!O7), ISBLANK(O$4)), "", 'Indicator Data'!O7 * O$4)</f>
         <v>9.0000000000000011E-2</v>
       </c>
-      <c r="P10" s="42">
+      <c r="P10" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!P7), ISBLANK(P$4)), "", 'Indicator Data'!P7 * P$4)</f>
         <v>0.1125</v>
       </c>
-      <c r="Q10" s="42">
+      <c r="Q10" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!Q7), ISBLANK(Q$4)), "", 'Indicator Data'!Q7 * Q$4)</f>
         <v>0.1125</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11" s="14" t="str">
         <v>Ukraine</v>
       </c>
       <c r="B11" s="14" t="str">
         <v>Chornobylska Zona</v>
       </c>
-      <c r="C11" s="42" t="str">
+      <c r="C11" s="38" t="str">
         <f>IF(OR(ISBLANK('Indicator Data'!C8), ISBLANK(C$4)), "", 'Indicator Data'!C8 * C$4)</f>
         <v/>
       </c>
-      <c r="D11" s="42" t="str">
+      <c r="D11" s="38" t="str">
         <f>IF(OR(ISBLANK('Indicator Data'!D8), ISBLANK(D$4)), "", 'Indicator Data'!D8 * D$4)</f>
         <v/>
       </c>
-      <c r="E11" s="42" t="str">
+      <c r="E11" s="38" t="str">
         <f>IF(OR(ISBLANK('Indicator Data'!E8), ISBLANK(E$4)), "", 'Indicator Data'!E8 * E$4)</f>
         <v/>
       </c>
-      <c r="F11" s="42" t="str">
+      <c r="F11" s="38" t="str">
         <f>IF(OR(ISBLANK('Indicator Data'!F8), ISBLANK(F$4)), "", 'Indicator Data'!F8 * F$4)</f>
         <v/>
       </c>
-      <c r="G11" s="42" t="str">
+      <c r="G11" s="38" t="str">
         <f>IF(OR(ISBLANK('Indicator Data'!G8), ISBLANK(G$4)), "", 'Indicator Data'!G8 * G$4)</f>
         <v/>
       </c>
-      <c r="H11" s="42" t="str">
+      <c r="H11" s="38" t="str">
         <f>IF(OR(ISBLANK('Indicator Data'!H8), ISBLANK(H$4)), "", 'Indicator Data'!H8 * H$4)</f>
         <v/>
       </c>
-      <c r="I11" s="42" t="str">
+      <c r="I11" s="38" t="str">
         <f>IF(OR(ISBLANK('Indicator Data'!I8), ISBLANK(I$4)), "", 'Indicator Data'!I8 * I$4)</f>
         <v/>
       </c>
-      <c r="J11" s="42" t="str">
+      <c r="J11" s="38" t="str">
         <f>IF(OR(ISBLANK('Indicator Data'!J8), ISBLANK(J$4)), "", 'Indicator Data'!J8 * J$4)</f>
         <v/>
       </c>
-      <c r="K11" s="42" t="str">
+      <c r="K11" s="38" t="str">
         <f>IF(OR(ISBLANK('Indicator Data'!K8), ISBLANK(K$4)), "", 'Indicator Data'!K8 * K$4)</f>
         <v/>
       </c>
-      <c r="L11" s="42" t="str">
+      <c r="L11" s="38" t="str">
         <f>IF(OR(ISBLANK('Indicator Data'!L8), ISBLANK(L$4)), "", 'Indicator Data'!L8 * L$4)</f>
         <v/>
       </c>
-      <c r="M11" s="42" t="str">
+      <c r="M11" s="38" t="str">
         <f>IF(OR(ISBLANK('Indicator Data'!M8), ISBLANK(M$4)), "", 'Indicator Data'!M8 * M$4)</f>
         <v/>
       </c>
-      <c r="N11" s="42" t="str">
+      <c r="N11" s="38" t="str">
         <f>IF(OR(ISBLANK('Indicator Data'!N8), ISBLANK(N$4)), "", 'Indicator Data'!N8 * N$4)</f>
         <v/>
       </c>
-      <c r="O11" s="42" t="str">
+      <c r="O11" s="38" t="str">
         <f>IF(OR(ISBLANK('Indicator Data'!O8), ISBLANK(O$4)), "", 'Indicator Data'!O8 * O$4)</f>
         <v/>
       </c>
-      <c r="P11" s="42" t="str">
+      <c r="P11" s="38" t="str">
         <f>IF(OR(ISBLANK('Indicator Data'!P8), ISBLANK(P$4)), "", 'Indicator Data'!P8 * P$4)</f>
         <v/>
       </c>
-      <c r="Q11" s="42" t="str">
+      <c r="Q11" s="38" t="str">
         <f>IF(OR(ISBLANK('Indicator Data'!Q8), ISBLANK(Q$4)), "", 'Indicator Data'!Q8 * Q$4)</f>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" s="14" t="str">
         <v>Ukraine</v>
       </c>
       <c r="B12" s="14" t="str">
         <v>Dnipropetrovska</v>
       </c>
-      <c r="C12" s="42">
+      <c r="C12" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!C9), ISBLANK(C$4)), "", 'Indicator Data'!C9 * C$4)</f>
         <v>0.60000000000000009</v>
       </c>
-      <c r="D12" s="42">
+      <c r="D12" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!D9), ISBLANK(D$4)), "", 'Indicator Data'!D9 * D$4)</f>
         <v>0.35</v>
       </c>
-      <c r="E12" s="42">
+      <c r="E12" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!E9), ISBLANK(E$4)), "", 'Indicator Data'!E9 * E$4)</f>
         <v>0.27999999999999997</v>
       </c>
-      <c r="F12" s="42">
+      <c r="F12" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!F9), ISBLANK(F$4)), "", 'Indicator Data'!F9 * F$4)</f>
         <v>0.35</v>
       </c>
-      <c r="G12" s="42">
+      <c r="G12" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!G9), ISBLANK(G$4)), "", 'Indicator Data'!G9 * G$4)</f>
         <v>0.35</v>
       </c>
-      <c r="H12" s="42">
+      <c r="H12" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!H9), ISBLANK(H$4)), "", 'Indicator Data'!H9 * H$4)</f>
         <v>0.13999999999999999</v>
       </c>
-      <c r="I12" s="42">
+      <c r="I12" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!I9), ISBLANK(I$4)), "", 'Indicator Data'!I9 * I$4)</f>
         <v>6.7500000000000004E-2</v>
       </c>
-      <c r="J12" s="42">
+      <c r="J12" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!J9), ISBLANK(J$4)), "", 'Indicator Data'!J9 * J$4)</f>
         <v>9.0000000000000011E-2</v>
       </c>
-      <c r="K12" s="42">
+      <c r="K12" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!K9), ISBLANK(K$4)), "", 'Indicator Data'!K9 * K$4)</f>
         <v>9.0000000000000011E-2</v>
       </c>
-      <c r="L12" s="42">
+      <c r="L12" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!L9), ISBLANK(L$4)), "", 'Indicator Data'!L9 * L$4)</f>
         <v>6.7500000000000004E-2</v>
       </c>
-      <c r="M12" s="42">
+      <c r="M12" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!M9), ISBLANK(M$4)), "", 'Indicator Data'!M9 * M$4)</f>
         <v>4.5000000000000005E-2</v>
       </c>
-      <c r="N12" s="42">
+      <c r="N12" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!N9), ISBLANK(N$4)), "", 'Indicator Data'!N9 * N$4)</f>
         <v>2.2500000000000003E-2</v>
       </c>
-      <c r="O12" s="42">
+      <c r="O12" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!O9), ISBLANK(O$4)), "", 'Indicator Data'!O9 * O$4)</f>
         <v>0.36000000000000004</v>
       </c>
-      <c r="P12" s="42">
+      <c r="P12" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!P9), ISBLANK(P$4)), "", 'Indicator Data'!P9 * P$4)</f>
         <v>0.22500000000000001</v>
       </c>
-      <c r="Q12" s="42">
+      <c r="Q12" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!Q9), ISBLANK(Q$4)), "", 'Indicator Data'!Q9 * Q$4)</f>
         <v>0.33750000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13" s="14" t="str">
         <v>Ukraine</v>
       </c>
       <c r="B13" s="14" t="str">
         <v>Donetska</v>
       </c>
-      <c r="C13" s="42">
+      <c r="C13" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!C10), ISBLANK(C$4)), "", 'Indicator Data'!C10 * C$4)</f>
         <v>0.8</v>
       </c>
-      <c r="D13" s="42">
+      <c r="D13" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!D10), ISBLANK(D$4)), "", 'Indicator Data'!D10 * D$4)</f>
         <v>0.20999999999999996</v>
       </c>
-      <c r="E13" s="42">
+      <c r="E13" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!E10), ISBLANK(E$4)), "", 'Indicator Data'!E10 * E$4)</f>
         <v>6.9999999999999993E-2</v>
       </c>
-      <c r="F13" s="42">
+      <c r="F13" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!F10), ISBLANK(F$4)), "", 'Indicator Data'!F10 * F$4)</f>
         <v>0.35</v>
       </c>
-      <c r="G13" s="42">
+      <c r="G13" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!G10), ISBLANK(G$4)), "", 'Indicator Data'!G10 * G$4)</f>
         <v>0.13999999999999999</v>
       </c>
-      <c r="H13" s="42" t="str">
+      <c r="H13" s="38" t="str">
         <f>IF(OR(ISBLANK('Indicator Data'!H10), ISBLANK(H$4)), "", 'Indicator Data'!H10 * H$4)</f>
         <v/>
       </c>
-      <c r="I13" s="42">
+      <c r="I13" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!I10), ISBLANK(I$4)), "", 'Indicator Data'!I10 * I$4)</f>
         <v>6.7500000000000004E-2</v>
       </c>
-      <c r="J13" s="42">
+      <c r="J13" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!J10), ISBLANK(J$4)), "", 'Indicator Data'!J10 * J$4)</f>
         <v>0.11250000000000002</v>
       </c>
-      <c r="K13" s="42">
+      <c r="K13" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!K10), ISBLANK(K$4)), "", 'Indicator Data'!K10 * K$4)</f>
         <v>0.11250000000000002</v>
       </c>
-      <c r="L13" s="42">
+      <c r="L13" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!L10), ISBLANK(L$4)), "", 'Indicator Data'!L10 * L$4)</f>
         <v>0.11250000000000002</v>
       </c>
-      <c r="M13" s="42">
+      <c r="M13" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!M10), ISBLANK(M$4)), "", 'Indicator Data'!M10 * M$4)</f>
         <v>0.11250000000000002</v>
       </c>
-      <c r="N13" s="42">
+      <c r="N13" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!N10), ISBLANK(N$4)), "", 'Indicator Data'!N10 * N$4)</f>
         <v>2.2500000000000003E-2</v>
       </c>
-      <c r="O13" s="42">
+      <c r="O13" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!O10), ISBLANK(O$4)), "", 'Indicator Data'!O10 * O$4)</f>
         <v>0.45000000000000007</v>
       </c>
-      <c r="P13" s="42">
+      <c r="P13" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!P10), ISBLANK(P$4)), "", 'Indicator Data'!P10 * P$4)</f>
         <v>0.5625</v>
       </c>
-      <c r="Q13" s="42">
+      <c r="Q13" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!Q10), ISBLANK(Q$4)), "", 'Indicator Data'!Q10 * Q$4)</f>
         <v>0.5625</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14" s="14" t="str">
         <v>Ukraine</v>
       </c>
       <c r="B14" s="14" t="str">
         <v>Ivano-Frankivska</v>
       </c>
-      <c r="C14" s="42">
+      <c r="C14" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!C11), ISBLANK(C$4)), "", 'Indicator Data'!C11 * C$4)</f>
         <v>0.8</v>
       </c>
-      <c r="D14" s="42">
+      <c r="D14" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!D11), ISBLANK(D$4)), "", 'Indicator Data'!D11 * D$4)</f>
         <v>0.13999999999999999</v>
       </c>
-      <c r="E14" s="42">
+      <c r="E14" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!E11), ISBLANK(E$4)), "", 'Indicator Data'!E11 * E$4)</f>
         <v>0.20999999999999996</v>
       </c>
-      <c r="F14" s="42">
+      <c r="F14" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!F11), ISBLANK(F$4)), "", 'Indicator Data'!F11 * F$4)</f>
         <v>0.13999999999999999</v>
       </c>
-      <c r="G14" s="42">
+      <c r="G14" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!G11), ISBLANK(G$4)), "", 'Indicator Data'!G11 * G$4)</f>
         <v>0.20999999999999996</v>
       </c>
-      <c r="H14" s="42">
+      <c r="H14" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!H11), ISBLANK(H$4)), "", 'Indicator Data'!H11 * H$4)</f>
         <v>0.20999999999999996</v>
       </c>
-      <c r="I14" s="42">
+      <c r="I14" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!I11), ISBLANK(I$4)), "", 'Indicator Data'!I11 * I$4)</f>
         <v>4.5000000000000005E-2</v>
       </c>
-      <c r="J14" s="42">
+      <c r="J14" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!J11), ISBLANK(J$4)), "", 'Indicator Data'!J11 * J$4)</f>
         <v>2.2500000000000003E-2</v>
       </c>
-      <c r="K14" s="42">
+      <c r="K14" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!K11), ISBLANK(K$4)), "", 'Indicator Data'!K11 * K$4)</f>
         <v>2.2500000000000003E-2</v>
       </c>
-      <c r="L14" s="42">
+      <c r="L14" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!L11), ISBLANK(L$4)), "", 'Indicator Data'!L11 * L$4)</f>
         <v>2.2500000000000003E-2</v>
       </c>
-      <c r="M14" s="42">
+      <c r="M14" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!M11), ISBLANK(M$4)), "", 'Indicator Data'!M11 * M$4)</f>
         <v>2.2500000000000003E-2</v>
       </c>
-      <c r="N14" s="42">
+      <c r="N14" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!N11), ISBLANK(N$4)), "", 'Indicator Data'!N11 * N$4)</f>
         <v>9.0000000000000011E-2</v>
       </c>
-      <c r="O14" s="42">
+      <c r="O14" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!O11), ISBLANK(O$4)), "", 'Indicator Data'!O11 * O$4)</f>
         <v>0.36000000000000004</v>
       </c>
-      <c r="P14" s="42">
+      <c r="P14" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!P11), ISBLANK(P$4)), "", 'Indicator Data'!P11 * P$4)</f>
         <v>0.1125</v>
       </c>
-      <c r="Q14" s="42">
+      <c r="Q14" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!Q11), ISBLANK(Q$4)), "", 'Indicator Data'!Q11 * Q$4)</f>
         <v>0.1125</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15" s="14" t="str">
         <v>Ukraine</v>
       </c>
       <c r="B15" s="14" t="str">
         <v>Kharkivska</v>
       </c>
-      <c r="C15" s="42">
+      <c r="C15" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!C12), ISBLANK(C$4)), "", 'Indicator Data'!C12 * C$4)</f>
         <v>1</v>
       </c>
-      <c r="D15" s="42">
+      <c r="D15" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!D12), ISBLANK(D$4)), "", 'Indicator Data'!D12 * D$4)</f>
         <v>0.27999999999999997</v>
       </c>
-      <c r="E15" s="42">
+      <c r="E15" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!E12), ISBLANK(E$4)), "", 'Indicator Data'!E12 * E$4)</f>
         <v>0.13999999999999999</v>
       </c>
-      <c r="F15" s="42">
+      <c r="F15" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!F12), ISBLANK(F$4)), "", 'Indicator Data'!F12 * F$4)</f>
         <v>0.35</v>
       </c>
-      <c r="G15" s="42">
+      <c r="G15" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!G12), ISBLANK(G$4)), "", 'Indicator Data'!G12 * G$4)</f>
         <v>0.35</v>
       </c>
-      <c r="H15" s="42">
+      <c r="H15" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!H12), ISBLANK(H$4)), "", 'Indicator Data'!H12 * H$4)</f>
         <v>0.20999999999999996</v>
       </c>
-      <c r="I15" s="42">
+      <c r="I15" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!I12), ISBLANK(I$4)), "", 'Indicator Data'!I12 * I$4)</f>
         <v>4.5000000000000005E-2</v>
       </c>
-      <c r="J15" s="42">
+      <c r="J15" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!J12), ISBLANK(J$4)), "", 'Indicator Data'!J12 * J$4)</f>
         <v>9.0000000000000011E-2</v>
       </c>
-      <c r="K15" s="42">
+      <c r="K15" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!K12), ISBLANK(K$4)), "", 'Indicator Data'!K12 * K$4)</f>
         <v>0.11250000000000002</v>
       </c>
-      <c r="L15" s="42">
+      <c r="L15" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!L12), ISBLANK(L$4)), "", 'Indicator Data'!L12 * L$4)</f>
         <v>9.0000000000000011E-2</v>
       </c>
-      <c r="M15" s="42">
+      <c r="M15" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!M12), ISBLANK(M$4)), "", 'Indicator Data'!M12 * M$4)</f>
         <v>9.0000000000000011E-2</v>
       </c>
-      <c r="N15" s="42">
+      <c r="N15" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!N12), ISBLANK(N$4)), "", 'Indicator Data'!N12 * N$4)</f>
         <v>2.2500000000000003E-2</v>
       </c>
-      <c r="O15" s="42">
+      <c r="O15" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!O12), ISBLANK(O$4)), "", 'Indicator Data'!O12 * O$4)</f>
         <v>0.36000000000000004</v>
       </c>
-      <c r="P15" s="42">
+      <c r="P15" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!P12), ISBLANK(P$4)), "", 'Indicator Data'!P12 * P$4)</f>
         <v>0.5625</v>
       </c>
-      <c r="Q15" s="42">
+      <c r="Q15" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!Q12), ISBLANK(Q$4)), "", 'Indicator Data'!Q12 * Q$4)</f>
         <v>0.5625</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A16" s="14" t="str">
         <v>Ukraine</v>
       </c>
       <c r="B16" s="14" t="str">
         <v>Khersonska</v>
       </c>
-      <c r="C16" s="42">
+      <c r="C16" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!C13), ISBLANK(C$4)), "", 'Indicator Data'!C13 * C$4)</f>
         <v>0.4</v>
       </c>
-      <c r="D16" s="42">
+      <c r="D16" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!D13), ISBLANK(D$4)), "", 'Indicator Data'!D13 * D$4)</f>
         <v>6.9999999999999993E-2</v>
       </c>
-      <c r="E16" s="42">
+      <c r="E16" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!E13), ISBLANK(E$4)), "", 'Indicator Data'!E13 * E$4)</f>
         <v>6.9999999999999993E-2</v>
       </c>
-      <c r="F16" s="42">
+      <c r="F16" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!F13), ISBLANK(F$4)), "", 'Indicator Data'!F13 * F$4)</f>
         <v>6.9999999999999993E-2</v>
       </c>
-      <c r="G16" s="42">
+      <c r="G16" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!G13), ISBLANK(G$4)), "", 'Indicator Data'!G13 * G$4)</f>
         <v>6.9999999999999993E-2</v>
       </c>
-      <c r="H16" s="42" t="str">
+      <c r="H16" s="38" t="str">
         <f>IF(OR(ISBLANK('Indicator Data'!H13), ISBLANK(H$4)), "", 'Indicator Data'!H13 * H$4)</f>
         <v/>
       </c>
-      <c r="I16" s="42">
+      <c r="I16" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!I13), ISBLANK(I$4)), "", 'Indicator Data'!I13 * I$4)</f>
         <v>0.11250000000000002</v>
       </c>
-      <c r="J16" s="42">
+      <c r="J16" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!J13), ISBLANK(J$4)), "", 'Indicator Data'!J13 * J$4)</f>
         <v>0.11250000000000002</v>
       </c>
-      <c r="K16" s="42">
+      <c r="K16" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!K13), ISBLANK(K$4)), "", 'Indicator Data'!K13 * K$4)</f>
         <v>0.11250000000000002</v>
       </c>
-      <c r="L16" s="42">
+      <c r="L16" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!L13), ISBLANK(L$4)), "", 'Indicator Data'!L13 * L$4)</f>
         <v>0.11250000000000002</v>
       </c>
-      <c r="M16" s="42">
+      <c r="M16" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!M13), ISBLANK(M$4)), "", 'Indicator Data'!M13 * M$4)</f>
         <v>0.11250000000000002</v>
       </c>
-      <c r="N16" s="42">
+      <c r="N16" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!N13), ISBLANK(N$4)), "", 'Indicator Data'!N13 * N$4)</f>
         <v>4.5000000000000005E-2</v>
       </c>
-      <c r="O16" s="42">
+      <c r="O16" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!O13), ISBLANK(O$4)), "", 'Indicator Data'!O13 * O$4)</f>
         <v>0.45000000000000007</v>
       </c>
-      <c r="P16" s="42">
+      <c r="P16" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!P13), ISBLANK(P$4)), "", 'Indicator Data'!P13 * P$4)</f>
         <v>0.5625</v>
       </c>
-      <c r="Q16" s="42">
+      <c r="Q16" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!Q13), ISBLANK(Q$4)), "", 'Indicator Data'!Q13 * Q$4)</f>
         <v>0.5625</v>
       </c>
+      <c r="T16" s="44"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" s="14" t="str">
         <v>Ukraine</v>
       </c>
-      <c r="B17" s="43" t="str">
+      <c r="B17" s="39" t="str">
         <v>Khmelnytska</v>
       </c>
-      <c r="C17" s="42">
+      <c r="C17" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!C14), ISBLANK(C$4)), "", 'Indicator Data'!C14 * C$4)</f>
         <v>0.8</v>
       </c>
-      <c r="D17" s="42">
+      <c r="D17" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!D14), ISBLANK(D$4)), "", 'Indicator Data'!D14 * D$4)</f>
         <v>0.20999999999999996</v>
       </c>
-      <c r="E17" s="42">
+      <c r="E17" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!E14), ISBLANK(E$4)), "", 'Indicator Data'!E14 * E$4)</f>
         <v>0.13999999999999999</v>
       </c>
-      <c r="F17" s="42">
+      <c r="F17" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!F14), ISBLANK(F$4)), "", 'Indicator Data'!F14 * F$4)</f>
         <v>0.13999999999999999</v>
       </c>
-      <c r="G17" s="42">
+      <c r="G17" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!G14), ISBLANK(G$4)), "", 'Indicator Data'!G14 * G$4)</f>
         <v>0.13999999999999999</v>
       </c>
-      <c r="H17" s="42">
+      <c r="H17" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!H14), ISBLANK(H$4)), "", 'Indicator Data'!H14 * H$4)</f>
         <v>0.20999999999999996</v>
       </c>
-      <c r="I17" s="42">
+      <c r="I17" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!I14), ISBLANK(I$4)), "", 'Indicator Data'!I14 * I$4)</f>
         <v>6.7500000000000004E-2</v>
       </c>
-      <c r="J17" s="42">
+      <c r="J17" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!J14), ISBLANK(J$4)), "", 'Indicator Data'!J14 * J$4)</f>
         <v>9.0000000000000011E-2</v>
       </c>
-      <c r="K17" s="42">
+      <c r="K17" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!K14), ISBLANK(K$4)), "", 'Indicator Data'!K14 * K$4)</f>
         <v>2.2500000000000003E-2</v>
       </c>
-      <c r="L17" s="42">
+      <c r="L17" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!L14), ISBLANK(L$4)), "", 'Indicator Data'!L14 * L$4)</f>
         <v>2.2500000000000003E-2</v>
       </c>
-      <c r="M17" s="42">
+      <c r="M17" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!M14), ISBLANK(M$4)), "", 'Indicator Data'!M14 * M$4)</f>
         <v>2.2500000000000003E-2</v>
       </c>
-      <c r="N17" s="42">
+      <c r="N17" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!N14), ISBLANK(N$4)), "", 'Indicator Data'!N14 * N$4)</f>
         <v>9.0000000000000011E-2</v>
       </c>
-      <c r="O17" s="42">
+      <c r="O17" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!O14), ISBLANK(O$4)), "", 'Indicator Data'!O14 * O$4)</f>
         <v>9.0000000000000011E-2</v>
       </c>
-      <c r="P17" s="42">
+      <c r="P17" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!P14), ISBLANK(P$4)), "", 'Indicator Data'!P14 * P$4)</f>
         <v>0.1125</v>
       </c>
-      <c r="Q17" s="42">
+      <c r="Q17" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!Q14), ISBLANK(Q$4)), "", 'Indicator Data'!Q14 * Q$4)</f>
         <v>0.1125</v>
       </c>
@@ -15657,63 +15680,63 @@
       <c r="B18" s="14" t="str">
         <v>Kirovohradska</v>
       </c>
-      <c r="C18" s="42">
+      <c r="C18" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!C15), ISBLANK(C$4)), "", 'Indicator Data'!C15 * C$4)</f>
         <v>0.60000000000000009</v>
       </c>
-      <c r="D18" s="42">
+      <c r="D18" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!D15), ISBLANK(D$4)), "", 'Indicator Data'!D15 * D$4)</f>
         <v>0.13999999999999999</v>
       </c>
-      <c r="E18" s="42">
+      <c r="E18" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!E15), ISBLANK(E$4)), "", 'Indicator Data'!E15 * E$4)</f>
         <v>0.13999999999999999</v>
       </c>
-      <c r="F18" s="42">
+      <c r="F18" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!F15), ISBLANK(F$4)), "", 'Indicator Data'!F15 * F$4)</f>
         <v>6.9999999999999993E-2</v>
       </c>
-      <c r="G18" s="42">
+      <c r="G18" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!G15), ISBLANK(G$4)), "", 'Indicator Data'!G15 * G$4)</f>
         <v>0.20999999999999996</v>
       </c>
-      <c r="H18" s="42">
+      <c r="H18" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!H15), ISBLANK(H$4)), "", 'Indicator Data'!H15 * H$4)</f>
         <v>6.9999999999999993E-2</v>
       </c>
-      <c r="I18" s="42">
+      <c r="I18" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!I15), ISBLANK(I$4)), "", 'Indicator Data'!I15 * I$4)</f>
         <v>0.11250000000000002</v>
       </c>
-      <c r="J18" s="42">
+      <c r="J18" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!J15), ISBLANK(J$4)), "", 'Indicator Data'!J15 * J$4)</f>
         <v>6.7500000000000004E-2</v>
       </c>
-      <c r="K18" s="42">
+      <c r="K18" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!K15), ISBLANK(K$4)), "", 'Indicator Data'!K15 * K$4)</f>
         <v>2.2500000000000003E-2</v>
       </c>
-      <c r="L18" s="42">
+      <c r="L18" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!L15), ISBLANK(L$4)), "", 'Indicator Data'!L15 * L$4)</f>
         <v>4.5000000000000005E-2</v>
       </c>
-      <c r="M18" s="42">
+      <c r="M18" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!M15), ISBLANK(M$4)), "", 'Indicator Data'!M15 * M$4)</f>
         <v>2.2500000000000003E-2</v>
       </c>
-      <c r="N18" s="42">
+      <c r="N18" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!N15), ISBLANK(N$4)), "", 'Indicator Data'!N15 * N$4)</f>
         <v>6.7500000000000004E-2</v>
       </c>
-      <c r="O18" s="42">
+      <c r="O18" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!O15), ISBLANK(O$4)), "", 'Indicator Data'!O15 * O$4)</f>
         <v>0.36000000000000004</v>
       </c>
-      <c r="P18" s="42">
+      <c r="P18" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!P15), ISBLANK(P$4)), "", 'Indicator Data'!P15 * P$4)</f>
         <v>0.1125</v>
       </c>
-      <c r="Q18" s="42">
+      <c r="Q18" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!Q15), ISBLANK(Q$4)), "", 'Indicator Data'!Q15 * Q$4)</f>
         <v>0.1125</v>
       </c>
@@ -15725,63 +15748,63 @@
       <c r="B19" s="14" t="str">
         <v>Kyivska</v>
       </c>
-      <c r="C19" s="42">
+      <c r="C19" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!C16), ISBLANK(C$4)), "", 'Indicator Data'!C16 * C$4)</f>
         <v>0.8</v>
       </c>
-      <c r="D19" s="42">
+      <c r="D19" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!D16), ISBLANK(D$4)), "", 'Indicator Data'!D16 * D$4)</f>
         <v>0.35</v>
       </c>
-      <c r="E19" s="42">
+      <c r="E19" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!E16), ISBLANK(E$4)), "", 'Indicator Data'!E16 * E$4)</f>
         <v>0.35</v>
       </c>
-      <c r="F19" s="42">
+      <c r="F19" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!F16), ISBLANK(F$4)), "", 'Indicator Data'!F16 * F$4)</f>
         <v>0.20999999999999996</v>
       </c>
-      <c r="G19" s="42">
+      <c r="G19" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!G16), ISBLANK(G$4)), "", 'Indicator Data'!G16 * G$4)</f>
         <v>0.27999999999999997</v>
       </c>
-      <c r="H19" s="42">
+      <c r="H19" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!H16), ISBLANK(H$4)), "", 'Indicator Data'!H16 * H$4)</f>
         <v>0.27999999999999997</v>
       </c>
-      <c r="I19" s="42">
+      <c r="I19" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!I16), ISBLANK(I$4)), "", 'Indicator Data'!I16 * I$4)</f>
         <v>9.0000000000000011E-2</v>
       </c>
-      <c r="J19" s="42">
+      <c r="J19" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!J16), ISBLANK(J$4)), "", 'Indicator Data'!J16 * J$4)</f>
         <v>6.7500000000000004E-2</v>
       </c>
-      <c r="K19" s="42">
+      <c r="K19" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!K16), ISBLANK(K$4)), "", 'Indicator Data'!K16 * K$4)</f>
         <v>9.0000000000000011E-2</v>
       </c>
-      <c r="L19" s="42">
+      <c r="L19" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!L16), ISBLANK(L$4)), "", 'Indicator Data'!L16 * L$4)</f>
         <v>2.2500000000000003E-2</v>
       </c>
-      <c r="M19" s="42">
+      <c r="M19" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!M16), ISBLANK(M$4)), "", 'Indicator Data'!M16 * M$4)</f>
         <v>2.2500000000000003E-2</v>
       </c>
-      <c r="N19" s="42">
+      <c r="N19" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!N16), ISBLANK(N$4)), "", 'Indicator Data'!N16 * N$4)</f>
         <v>6.7500000000000004E-2</v>
       </c>
-      <c r="O19" s="42">
+      <c r="O19" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!O16), ISBLANK(O$4)), "", 'Indicator Data'!O16 * O$4)</f>
         <v>0.27</v>
       </c>
-      <c r="P19" s="42">
+      <c r="P19" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!P16), ISBLANK(P$4)), "", 'Indicator Data'!P16 * P$4)</f>
         <v>0.1125</v>
       </c>
-      <c r="Q19" s="42">
+      <c r="Q19" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!Q16), ISBLANK(Q$4)), "", 'Indicator Data'!Q16 * Q$4)</f>
         <v>0.33750000000000002</v>
       </c>
@@ -15793,63 +15816,63 @@
       <c r="B20" s="14" t="str">
         <v>Luhanska</v>
       </c>
-      <c r="C20" s="42">
+      <c r="C20" s="38" t="str">
         <f>IF(OR(ISBLANK('Indicator Data'!C17), ISBLANK(C$4)), "", 'Indicator Data'!C17 * C$4)</f>
-        <v>1</v>
-      </c>
-      <c r="D20" s="42">
+        <v/>
+      </c>
+      <c r="D20" s="38" t="str">
         <f>IF(OR(ISBLANK('Indicator Data'!D17), ISBLANK(D$4)), "", 'Indicator Data'!D17 * D$4)</f>
-        <v>0.13999999999999999</v>
-      </c>
-      <c r="E20" s="42">
+        <v/>
+      </c>
+      <c r="E20" s="38" t="str">
         <f>IF(OR(ISBLANK('Indicator Data'!E17), ISBLANK(E$4)), "", 'Indicator Data'!E17 * E$4)</f>
-        <v>6.9999999999999993E-2</v>
-      </c>
-      <c r="F20" s="42">
+        <v/>
+      </c>
+      <c r="F20" s="38" t="str">
         <f>IF(OR(ISBLANK('Indicator Data'!F17), ISBLANK(F$4)), "", 'Indicator Data'!F17 * F$4)</f>
-        <v>0.35</v>
-      </c>
-      <c r="G20" s="42" t="str">
+        <v/>
+      </c>
+      <c r="G20" s="38" t="str">
         <f>IF(OR(ISBLANK('Indicator Data'!G17), ISBLANK(G$4)), "", 'Indicator Data'!G17 * G$4)</f>
         <v/>
       </c>
-      <c r="H20" s="42" t="str">
+      <c r="H20" s="38" t="str">
         <f>IF(OR(ISBLANK('Indicator Data'!H17), ISBLANK(H$4)), "", 'Indicator Data'!H17 * H$4)</f>
         <v/>
       </c>
-      <c r="I20" s="42" t="str">
+      <c r="I20" s="38" t="str">
         <f>IF(OR(ISBLANK('Indicator Data'!I17), ISBLANK(I$4)), "", 'Indicator Data'!I17 * I$4)</f>
         <v/>
       </c>
-      <c r="J20" s="42" t="str">
+      <c r="J20" s="38" t="str">
         <f>IF(OR(ISBLANK('Indicator Data'!J17), ISBLANK(J$4)), "", 'Indicator Data'!J17 * J$4)</f>
         <v/>
       </c>
-      <c r="K20" s="42" t="str">
+      <c r="K20" s="38" t="str">
         <f>IF(OR(ISBLANK('Indicator Data'!K17), ISBLANK(K$4)), "", 'Indicator Data'!K17 * K$4)</f>
         <v/>
       </c>
-      <c r="L20" s="42" t="str">
+      <c r="L20" s="38" t="str">
         <f>IF(OR(ISBLANK('Indicator Data'!L17), ISBLANK(L$4)), "", 'Indicator Data'!L17 * L$4)</f>
         <v/>
       </c>
-      <c r="M20" s="42" t="str">
+      <c r="M20" s="38" t="str">
         <f>IF(OR(ISBLANK('Indicator Data'!M17), ISBLANK(M$4)), "", 'Indicator Data'!M17 * M$4)</f>
         <v/>
       </c>
-      <c r="N20" s="42">
+      <c r="N20" s="38" t="str">
         <f>IF(OR(ISBLANK('Indicator Data'!N17), ISBLANK(N$4)), "", 'Indicator Data'!N17 * N$4)</f>
-        <v>0.11250000000000002</v>
-      </c>
-      <c r="O20" s="42">
+        <v/>
+      </c>
+      <c r="O20" s="38" t="str">
         <f>IF(OR(ISBLANK('Indicator Data'!O17), ISBLANK(O$4)), "", 'Indicator Data'!O17 * O$4)</f>
-        <v>0.45000000000000007</v>
-      </c>
-      <c r="P20" s="42">
+        <v/>
+      </c>
+      <c r="P20" s="38" t="str">
         <f>IF(OR(ISBLANK('Indicator Data'!P17), ISBLANK(P$4)), "", 'Indicator Data'!P17 * P$4)</f>
-        <v>0.33750000000000002</v>
-      </c>
-      <c r="Q20" s="42" t="str">
+        <v/>
+      </c>
+      <c r="Q20" s="38" t="str">
         <f>IF(OR(ISBLANK('Indicator Data'!Q17), ISBLANK(Q$4)), "", 'Indicator Data'!Q17 * Q$4)</f>
         <v/>
       </c>
@@ -15861,63 +15884,63 @@
       <c r="B21" s="14" t="str">
         <v>Lvivska</v>
       </c>
-      <c r="C21" s="42">
+      <c r="C21" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!C18), ISBLANK(C$4)), "", 'Indicator Data'!C18 * C$4)</f>
         <v>0.60000000000000009</v>
       </c>
-      <c r="D21" s="42">
+      <c r="D21" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!D18), ISBLANK(D$4)), "", 'Indicator Data'!D18 * D$4)</f>
         <v>0.27999999999999997</v>
       </c>
-      <c r="E21" s="42">
+      <c r="E21" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!E18), ISBLANK(E$4)), "", 'Indicator Data'!E18 * E$4)</f>
         <v>0.35</v>
       </c>
-      <c r="F21" s="42">
+      <c r="F21" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!F18), ISBLANK(F$4)), "", 'Indicator Data'!F18 * F$4)</f>
         <v>0.27999999999999997</v>
       </c>
-      <c r="G21" s="42">
+      <c r="G21" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!G18), ISBLANK(G$4)), "", 'Indicator Data'!G18 * G$4)</f>
         <v>0.27999999999999997</v>
       </c>
-      <c r="H21" s="42">
+      <c r="H21" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!H18), ISBLANK(H$4)), "", 'Indicator Data'!H18 * H$4)</f>
         <v>0.13999999999999999</v>
       </c>
-      <c r="I21" s="42">
+      <c r="I21" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!I18), ISBLANK(I$4)), "", 'Indicator Data'!I18 * I$4)</f>
         <v>4.5000000000000005E-2</v>
       </c>
-      <c r="J21" s="42">
+      <c r="J21" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!J18), ISBLANK(J$4)), "", 'Indicator Data'!J18 * J$4)</f>
         <v>6.7500000000000004E-2</v>
       </c>
-      <c r="K21" s="42">
+      <c r="K21" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!K18), ISBLANK(K$4)), "", 'Indicator Data'!K18 * K$4)</f>
         <v>2.2500000000000003E-2</v>
       </c>
-      <c r="L21" s="42">
+      <c r="L21" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!L18), ISBLANK(L$4)), "", 'Indicator Data'!L18 * L$4)</f>
         <v>4.5000000000000005E-2</v>
       </c>
-      <c r="M21" s="42">
+      <c r="M21" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!M18), ISBLANK(M$4)), "", 'Indicator Data'!M18 * M$4)</f>
         <v>2.2500000000000003E-2</v>
       </c>
-      <c r="N21" s="42">
+      <c r="N21" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!N18), ISBLANK(N$4)), "", 'Indicator Data'!N18 * N$4)</f>
         <v>6.7500000000000004E-2</v>
       </c>
-      <c r="O21" s="42">
+      <c r="O21" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!O18), ISBLANK(O$4)), "", 'Indicator Data'!O18 * O$4)</f>
         <v>9.0000000000000011E-2</v>
       </c>
-      <c r="P21" s="42">
+      <c r="P21" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!P18), ISBLANK(P$4)), "", 'Indicator Data'!P18 * P$4)</f>
         <v>0.1125</v>
       </c>
-      <c r="Q21" s="42">
+      <c r="Q21" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!Q18), ISBLANK(Q$4)), "", 'Indicator Data'!Q18 * Q$4)</f>
         <v>0.1125</v>
       </c>
@@ -15929,63 +15952,63 @@
       <c r="B22" s="14" t="str">
         <v>Misto Kyiv</v>
       </c>
-      <c r="C22" s="42">
+      <c r="C22" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!C19), ISBLANK(C$4)), "", 'Indicator Data'!C19 * C$4)</f>
         <v>0.8</v>
       </c>
-      <c r="D22" s="42">
+      <c r="D22" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!D19), ISBLANK(D$4)), "", 'Indicator Data'!D19 * D$4)</f>
         <v>0.35</v>
       </c>
-      <c r="E22" s="42">
+      <c r="E22" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!E19), ISBLANK(E$4)), "", 'Indicator Data'!E19 * E$4)</f>
         <v>0.35</v>
       </c>
-      <c r="F22" s="42">
+      <c r="F22" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!F19), ISBLANK(F$4)), "", 'Indicator Data'!F19 * F$4)</f>
         <v>0.35</v>
       </c>
-      <c r="G22" s="42">
+      <c r="G22" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!G19), ISBLANK(G$4)), "", 'Indicator Data'!G19 * G$4)</f>
         <v>0.27999999999999997</v>
       </c>
-      <c r="H22" s="42">
+      <c r="H22" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!H19), ISBLANK(H$4)), "", 'Indicator Data'!H19 * H$4)</f>
         <v>6.9999999999999993E-2</v>
       </c>
-      <c r="I22" s="42">
+      <c r="I22" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!I19), ISBLANK(I$4)), "", 'Indicator Data'!I19 * I$4)</f>
         <v>6.7500000000000004E-2</v>
       </c>
-      <c r="J22" s="42">
+      <c r="J22" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!J19), ISBLANK(J$4)), "", 'Indicator Data'!J19 * J$4)</f>
         <v>6.7500000000000004E-2</v>
       </c>
-      <c r="K22" s="42">
+      <c r="K22" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!K19), ISBLANK(K$4)), "", 'Indicator Data'!K19 * K$4)</f>
         <v>4.5000000000000005E-2</v>
       </c>
-      <c r="L22" s="42">
+      <c r="L22" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!L19), ISBLANK(L$4)), "", 'Indicator Data'!L19 * L$4)</f>
         <v>0.11250000000000002</v>
       </c>
-      <c r="M22" s="42">
+      <c r="M22" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!M19), ISBLANK(M$4)), "", 'Indicator Data'!M19 * M$4)</f>
         <v>0.11250000000000002</v>
       </c>
-      <c r="N22" s="42">
+      <c r="N22" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!N19), ISBLANK(N$4)), "", 'Indicator Data'!N19 * N$4)</f>
         <v>4.5000000000000005E-2</v>
       </c>
-      <c r="O22" s="42">
+      <c r="O22" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!O19), ISBLANK(O$4)), "", 'Indicator Data'!O19 * O$4)</f>
         <v>0.27</v>
       </c>
-      <c r="P22" s="42">
+      <c r="P22" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!P19), ISBLANK(P$4)), "", 'Indicator Data'!P19 * P$4)</f>
         <v>0.45</v>
       </c>
-      <c r="Q22" s="42">
+      <c r="Q22" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!Q19), ISBLANK(Q$4)), "", 'Indicator Data'!Q19 * Q$4)</f>
         <v>0.33750000000000002</v>
       </c>
@@ -15997,63 +16020,63 @@
       <c r="B23" s="14" t="str">
         <v>Misto Sevastopol</v>
       </c>
-      <c r="C23" s="42" t="str">
+      <c r="C23" s="38" t="str">
         <f>IF(OR(ISBLANK('Indicator Data'!C20), ISBLANK(C$4)), "", 'Indicator Data'!C20 * C$4)</f>
         <v/>
       </c>
-      <c r="D23" s="42" t="str">
+      <c r="D23" s="38" t="str">
         <f>IF(OR(ISBLANK('Indicator Data'!D20), ISBLANK(D$4)), "", 'Indicator Data'!D20 * D$4)</f>
         <v/>
       </c>
-      <c r="E23" s="42" t="str">
+      <c r="E23" s="38" t="str">
         <f>IF(OR(ISBLANK('Indicator Data'!E20), ISBLANK(E$4)), "", 'Indicator Data'!E20 * E$4)</f>
         <v/>
       </c>
-      <c r="F23" s="42" t="str">
+      <c r="F23" s="38" t="str">
         <f>IF(OR(ISBLANK('Indicator Data'!F20), ISBLANK(F$4)), "", 'Indicator Data'!F20 * F$4)</f>
         <v/>
       </c>
-      <c r="G23" s="42" t="str">
+      <c r="G23" s="38" t="str">
         <f>IF(OR(ISBLANK('Indicator Data'!G20), ISBLANK(G$4)), "", 'Indicator Data'!G20 * G$4)</f>
         <v/>
       </c>
-      <c r="H23" s="42" t="str">
+      <c r="H23" s="38" t="str">
         <f>IF(OR(ISBLANK('Indicator Data'!H20), ISBLANK(H$4)), "", 'Indicator Data'!H20 * H$4)</f>
         <v/>
       </c>
-      <c r="I23" s="42" t="str">
+      <c r="I23" s="38" t="str">
         <f>IF(OR(ISBLANK('Indicator Data'!I20), ISBLANK(I$4)), "", 'Indicator Data'!I20 * I$4)</f>
         <v/>
       </c>
-      <c r="J23" s="42" t="str">
+      <c r="J23" s="38" t="str">
         <f>IF(OR(ISBLANK('Indicator Data'!J20), ISBLANK(J$4)), "", 'Indicator Data'!J20 * J$4)</f>
         <v/>
       </c>
-      <c r="K23" s="42" t="str">
+      <c r="K23" s="38" t="str">
         <f>IF(OR(ISBLANK('Indicator Data'!K20), ISBLANK(K$4)), "", 'Indicator Data'!K20 * K$4)</f>
         <v/>
       </c>
-      <c r="L23" s="42" t="str">
+      <c r="L23" s="38" t="str">
         <f>IF(OR(ISBLANK('Indicator Data'!L20), ISBLANK(L$4)), "", 'Indicator Data'!L20 * L$4)</f>
         <v/>
       </c>
-      <c r="M23" s="42" t="str">
+      <c r="M23" s="38" t="str">
         <f>IF(OR(ISBLANK('Indicator Data'!M20), ISBLANK(M$4)), "", 'Indicator Data'!M20 * M$4)</f>
         <v/>
       </c>
-      <c r="N23" s="42" t="str">
+      <c r="N23" s="38" t="str">
         <f>IF(OR(ISBLANK('Indicator Data'!N20), ISBLANK(N$4)), "", 'Indicator Data'!N20 * N$4)</f>
         <v/>
       </c>
-      <c r="O23" s="42" t="str">
+      <c r="O23" s="38" t="str">
         <f>IF(OR(ISBLANK('Indicator Data'!O20), ISBLANK(O$4)), "", 'Indicator Data'!O20 * O$4)</f>
         <v/>
       </c>
-      <c r="P23" s="42" t="str">
+      <c r="P23" s="38" t="str">
         <f>IF(OR(ISBLANK('Indicator Data'!P20), ISBLANK(P$4)), "", 'Indicator Data'!P20 * P$4)</f>
         <v/>
       </c>
-      <c r="Q23" s="42" t="str">
+      <c r="Q23" s="38" t="str">
         <f>IF(OR(ISBLANK('Indicator Data'!Q20), ISBLANK(Q$4)), "", 'Indicator Data'!Q20 * Q$4)</f>
         <v/>
       </c>
@@ -16065,63 +16088,63 @@
       <c r="B24" s="14" t="str">
         <v>Mykolaivska</v>
       </c>
-      <c r="C24" s="42">
+      <c r="C24" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!C21), ISBLANK(C$4)), "", 'Indicator Data'!C21 * C$4)</f>
         <v>0.60000000000000009</v>
       </c>
-      <c r="D24" s="42">
+      <c r="D24" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!D21), ISBLANK(D$4)), "", 'Indicator Data'!D21 * D$4)</f>
         <v>0.13999999999999999</v>
       </c>
-      <c r="E24" s="42">
+      <c r="E24" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!E21), ISBLANK(E$4)), "", 'Indicator Data'!E21 * E$4)</f>
         <v>6.9999999999999993E-2</v>
       </c>
-      <c r="F24" s="42">
+      <c r="F24" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!F21), ISBLANK(F$4)), "", 'Indicator Data'!F21 * F$4)</f>
         <v>0.13999999999999999</v>
       </c>
-      <c r="G24" s="42">
+      <c r="G24" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!G21), ISBLANK(G$4)), "", 'Indicator Data'!G21 * G$4)</f>
         <v>0.20999999999999996</v>
       </c>
-      <c r="H24" s="42">
+      <c r="H24" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!H21), ISBLANK(H$4)), "", 'Indicator Data'!H21 * H$4)</f>
         <v>0.27999999999999997</v>
       </c>
-      <c r="I24" s="42">
+      <c r="I24" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!I21), ISBLANK(I$4)), "", 'Indicator Data'!I21 * I$4)</f>
         <v>0.11250000000000002</v>
       </c>
-      <c r="J24" s="42">
+      <c r="J24" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!J21), ISBLANK(J$4)), "", 'Indicator Data'!J21 * J$4)</f>
         <v>0.11250000000000002</v>
       </c>
-      <c r="K24" s="42">
+      <c r="K24" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!K21), ISBLANK(K$4)), "", 'Indicator Data'!K21 * K$4)</f>
         <v>6.7500000000000004E-2</v>
       </c>
-      <c r="L24" s="42">
+      <c r="L24" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!L21), ISBLANK(L$4)), "", 'Indicator Data'!L21 * L$4)</f>
         <v>6.7500000000000004E-2</v>
       </c>
-      <c r="M24" s="42">
+      <c r="M24" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!M21), ISBLANK(M$4)), "", 'Indicator Data'!M21 * M$4)</f>
         <v>4.5000000000000005E-2</v>
       </c>
-      <c r="N24" s="42">
+      <c r="N24" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!N21), ISBLANK(N$4)), "", 'Indicator Data'!N21 * N$4)</f>
         <v>4.5000000000000005E-2</v>
       </c>
-      <c r="O24" s="42">
+      <c r="O24" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!O21), ISBLANK(O$4)), "", 'Indicator Data'!O21 * O$4)</f>
         <v>0.36000000000000004</v>
       </c>
-      <c r="P24" s="42">
+      <c r="P24" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!P21), ISBLANK(P$4)), "", 'Indicator Data'!P21 * P$4)</f>
         <v>0.45</v>
       </c>
-      <c r="Q24" s="42">
+      <c r="Q24" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!Q21), ISBLANK(Q$4)), "", 'Indicator Data'!Q21 * Q$4)</f>
         <v>0.33750000000000002</v>
       </c>
@@ -16133,63 +16156,63 @@
       <c r="B25" s="14" t="str">
         <v>Odeska</v>
       </c>
-      <c r="C25" s="42">
+      <c r="C25" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!C22), ISBLANK(C$4)), "", 'Indicator Data'!C22 * C$4)</f>
         <v>0.4</v>
       </c>
-      <c r="D25" s="42">
+      <c r="D25" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!D22), ISBLANK(D$4)), "", 'Indicator Data'!D22 * D$4)</f>
         <v>0.27999999999999997</v>
       </c>
-      <c r="E25" s="42">
+      <c r="E25" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!E22), ISBLANK(E$4)), "", 'Indicator Data'!E22 * E$4)</f>
         <v>0.27999999999999997</v>
       </c>
-      <c r="F25" s="42">
+      <c r="F25" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!F22), ISBLANK(F$4)), "", 'Indicator Data'!F22 * F$4)</f>
         <v>0.27999999999999997</v>
       </c>
-      <c r="G25" s="42">
+      <c r="G25" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!G22), ISBLANK(G$4)), "", 'Indicator Data'!G22 * G$4)</f>
         <v>0.27999999999999997</v>
       </c>
-      <c r="H25" s="42">
+      <c r="H25" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!H22), ISBLANK(H$4)), "", 'Indicator Data'!H22 * H$4)</f>
         <v>0.27999999999999997</v>
       </c>
-      <c r="I25" s="42">
+      <c r="I25" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!I22), ISBLANK(I$4)), "", 'Indicator Data'!I22 * I$4)</f>
         <v>6.7500000000000004E-2</v>
       </c>
-      <c r="J25" s="42">
+      <c r="J25" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!J22), ISBLANK(J$4)), "", 'Indicator Data'!J22 * J$4)</f>
         <v>0.11250000000000002</v>
       </c>
-      <c r="K25" s="42">
+      <c r="K25" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!K22), ISBLANK(K$4)), "", 'Indicator Data'!K22 * K$4)</f>
         <v>4.5000000000000005E-2</v>
       </c>
-      <c r="L25" s="42">
+      <c r="L25" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!L22), ISBLANK(L$4)), "", 'Indicator Data'!L22 * L$4)</f>
         <v>0.11250000000000002</v>
       </c>
-      <c r="M25" s="42">
+      <c r="M25" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!M22), ISBLANK(M$4)), "", 'Indicator Data'!M22 * M$4)</f>
         <v>9.0000000000000011E-2</v>
       </c>
-      <c r="N25" s="42">
+      <c r="N25" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!N22), ISBLANK(N$4)), "", 'Indicator Data'!N22 * N$4)</f>
         <v>4.5000000000000005E-2</v>
       </c>
-      <c r="O25" s="42">
+      <c r="O25" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!O22), ISBLANK(O$4)), "", 'Indicator Data'!O22 * O$4)</f>
         <v>0.36000000000000004</v>
       </c>
-      <c r="P25" s="42">
+      <c r="P25" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!P22), ISBLANK(P$4)), "", 'Indicator Data'!P22 * P$4)</f>
         <v>0.22500000000000001</v>
       </c>
-      <c r="Q25" s="42">
+      <c r="Q25" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!Q22), ISBLANK(Q$4)), "", 'Indicator Data'!Q22 * Q$4)</f>
         <v>0.33750000000000002</v>
       </c>
@@ -16201,63 +16224,63 @@
       <c r="B26" s="14" t="str">
         <v>Poltavska</v>
       </c>
-      <c r="C26" s="42">
+      <c r="C26" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!C23), ISBLANK(C$4)), "", 'Indicator Data'!C23 * C$4)</f>
         <v>0.8</v>
       </c>
-      <c r="D26" s="42">
+      <c r="D26" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!D23), ISBLANK(D$4)), "", 'Indicator Data'!D23 * D$4)</f>
         <v>0.20999999999999996</v>
       </c>
-      <c r="E26" s="42">
+      <c r="E26" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!E23), ISBLANK(E$4)), "", 'Indicator Data'!E23 * E$4)</f>
         <v>0.13999999999999999</v>
       </c>
-      <c r="F26" s="42">
+      <c r="F26" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!F23), ISBLANK(F$4)), "", 'Indicator Data'!F23 * F$4)</f>
         <v>0.20999999999999996</v>
       </c>
-      <c r="G26" s="42">
+      <c r="G26" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!G23), ISBLANK(G$4)), "", 'Indicator Data'!G23 * G$4)</f>
         <v>0.27999999999999997</v>
       </c>
-      <c r="H26" s="42">
+      <c r="H26" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!H23), ISBLANK(H$4)), "", 'Indicator Data'!H23 * H$4)</f>
         <v>0.20999999999999996</v>
       </c>
-      <c r="I26" s="42">
+      <c r="I26" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!I23), ISBLANK(I$4)), "", 'Indicator Data'!I23 * I$4)</f>
         <v>6.7500000000000004E-2</v>
       </c>
-      <c r="J26" s="42">
+      <c r="J26" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!J23), ISBLANK(J$4)), "", 'Indicator Data'!J23 * J$4)</f>
         <v>6.7500000000000004E-2</v>
       </c>
-      <c r="K26" s="42">
+      <c r="K26" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!K23), ISBLANK(K$4)), "", 'Indicator Data'!K23 * K$4)</f>
         <v>2.2500000000000003E-2</v>
       </c>
-      <c r="L26" s="42">
+      <c r="L26" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!L23), ISBLANK(L$4)), "", 'Indicator Data'!L23 * L$4)</f>
         <v>4.5000000000000005E-2</v>
       </c>
-      <c r="M26" s="42">
+      <c r="M26" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!M23), ISBLANK(M$4)), "", 'Indicator Data'!M23 * M$4)</f>
         <v>4.5000000000000005E-2</v>
       </c>
-      <c r="N26" s="42">
+      <c r="N26" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!N23), ISBLANK(N$4)), "", 'Indicator Data'!N23 * N$4)</f>
         <v>4.5000000000000005E-2</v>
       </c>
-      <c r="O26" s="42">
+      <c r="O26" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!O23), ISBLANK(O$4)), "", 'Indicator Data'!O23 * O$4)</f>
         <v>0.27</v>
       </c>
-      <c r="P26" s="42">
+      <c r="P26" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!P23), ISBLANK(P$4)), "", 'Indicator Data'!P23 * P$4)</f>
         <v>0.22500000000000001</v>
       </c>
-      <c r="Q26" s="42">
+      <c r="Q26" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!Q23), ISBLANK(Q$4)), "", 'Indicator Data'!Q23 * Q$4)</f>
         <v>0.1125</v>
       </c>
@@ -16269,63 +16292,63 @@
       <c r="B27" s="14" t="str">
         <v>Rivnenska</v>
       </c>
-      <c r="C27" s="42">
+      <c r="C27" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!C24), ISBLANK(C$4)), "", 'Indicator Data'!C24 * C$4)</f>
         <v>0.8</v>
       </c>
-      <c r="D27" s="42">
+      <c r="D27" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!D24), ISBLANK(D$4)), "", 'Indicator Data'!D24 * D$4)</f>
         <v>0.13999999999999999</v>
       </c>
-      <c r="E27" s="42">
+      <c r="E27" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!E24), ISBLANK(E$4)), "", 'Indicator Data'!E24 * E$4)</f>
         <v>0.20999999999999996</v>
       </c>
-      <c r="F27" s="42">
+      <c r="F27" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!F24), ISBLANK(F$4)), "", 'Indicator Data'!F24 * F$4)</f>
         <v>0.13999999999999999</v>
       </c>
-      <c r="G27" s="42">
+      <c r="G27" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!G24), ISBLANK(G$4)), "", 'Indicator Data'!G24 * G$4)</f>
         <v>0.13999999999999999</v>
       </c>
-      <c r="H27" s="42">
+      <c r="H27" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!H24), ISBLANK(H$4)), "", 'Indicator Data'!H24 * H$4)</f>
         <v>6.9999999999999993E-2</v>
       </c>
-      <c r="I27" s="42">
+      <c r="I27" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!I24), ISBLANK(I$4)), "", 'Indicator Data'!I24 * I$4)</f>
         <v>4.5000000000000005E-2</v>
       </c>
-      <c r="J27" s="42">
+      <c r="J27" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!J24), ISBLANK(J$4)), "", 'Indicator Data'!J24 * J$4)</f>
         <v>4.5000000000000005E-2</v>
       </c>
-      <c r="K27" s="42">
+      <c r="K27" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!K24), ISBLANK(K$4)), "", 'Indicator Data'!K24 * K$4)</f>
         <v>2.2500000000000003E-2</v>
       </c>
-      <c r="L27" s="42">
+      <c r="L27" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!L24), ISBLANK(L$4)), "", 'Indicator Data'!L24 * L$4)</f>
         <v>2.2500000000000003E-2</v>
       </c>
-      <c r="M27" s="42">
+      <c r="M27" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!M24), ISBLANK(M$4)), "", 'Indicator Data'!M24 * M$4)</f>
         <v>2.2500000000000003E-2</v>
       </c>
-      <c r="N27" s="42">
+      <c r="N27" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!N24), ISBLANK(N$4)), "", 'Indicator Data'!N24 * N$4)</f>
         <v>9.0000000000000011E-2</v>
       </c>
-      <c r="O27" s="42">
+      <c r="O27" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!O24), ISBLANK(O$4)), "", 'Indicator Data'!O24 * O$4)</f>
         <v>0.27</v>
       </c>
-      <c r="P27" s="42">
+      <c r="P27" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!P24), ISBLANK(P$4)), "", 'Indicator Data'!P24 * P$4)</f>
         <v>0.22500000000000001</v>
       </c>
-      <c r="Q27" s="42">
+      <c r="Q27" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!Q24), ISBLANK(Q$4)), "", 'Indicator Data'!Q24 * Q$4)</f>
         <v>0.1125</v>
       </c>
@@ -16337,63 +16360,63 @@
       <c r="B28" s="14" t="str">
         <v>Sumska</v>
       </c>
-      <c r="C28" s="42">
+      <c r="C28" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!C25), ISBLANK(C$4)), "", 'Indicator Data'!C25 * C$4)</f>
         <v>1</v>
       </c>
-      <c r="D28" s="42">
+      <c r="D28" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!D25), ISBLANK(D$4)), "", 'Indicator Data'!D25 * D$4)</f>
         <v>0.13999999999999999</v>
       </c>
-      <c r="E28" s="42">
+      <c r="E28" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!E25), ISBLANK(E$4)), "", 'Indicator Data'!E25 * E$4)</f>
         <v>6.9999999999999993E-2</v>
       </c>
-      <c r="F28" s="42">
+      <c r="F28" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!F25), ISBLANK(F$4)), "", 'Indicator Data'!F25 * F$4)</f>
         <v>0.27999999999999997</v>
       </c>
-      <c r="G28" s="42">
+      <c r="G28" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!G25), ISBLANK(G$4)), "", 'Indicator Data'!G25 * G$4)</f>
         <v>0.13999999999999999</v>
       </c>
-      <c r="H28" s="42">
+      <c r="H28" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!H25), ISBLANK(H$4)), "", 'Indicator Data'!H25 * H$4)</f>
         <v>0.35</v>
       </c>
-      <c r="I28" s="42">
+      <c r="I28" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!I25), ISBLANK(I$4)), "", 'Indicator Data'!I25 * I$4)</f>
         <v>2.2500000000000003E-2</v>
       </c>
-      <c r="J28" s="42">
+      <c r="J28" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!J25), ISBLANK(J$4)), "", 'Indicator Data'!J25 * J$4)</f>
         <v>4.5000000000000005E-2</v>
       </c>
-      <c r="K28" s="42">
+      <c r="K28" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!K25), ISBLANK(K$4)), "", 'Indicator Data'!K25 * K$4)</f>
         <v>2.2500000000000003E-2</v>
       </c>
-      <c r="L28" s="42">
+      <c r="L28" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!L25), ISBLANK(L$4)), "", 'Indicator Data'!L25 * L$4)</f>
         <v>9.0000000000000011E-2</v>
       </c>
-      <c r="M28" s="42">
+      <c r="M28" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!M25), ISBLANK(M$4)), "", 'Indicator Data'!M25 * M$4)</f>
         <v>4.5000000000000005E-2</v>
       </c>
-      <c r="N28" s="42">
+      <c r="N28" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!N25), ISBLANK(N$4)), "", 'Indicator Data'!N25 * N$4)</f>
         <v>6.7500000000000004E-2</v>
       </c>
-      <c r="O28" s="42">
+      <c r="O28" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!O25), ISBLANK(O$4)), "", 'Indicator Data'!O25 * O$4)</f>
         <v>0.27</v>
       </c>
-      <c r="P28" s="42">
+      <c r="P28" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!P25), ISBLANK(P$4)), "", 'Indicator Data'!P25 * P$4)</f>
         <v>0.33750000000000002</v>
       </c>
-      <c r="Q28" s="42">
+      <c r="Q28" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!Q25), ISBLANK(Q$4)), "", 'Indicator Data'!Q25 * Q$4)</f>
         <v>0.33750000000000002</v>
       </c>
@@ -16405,63 +16428,63 @@
       <c r="B29" s="14" t="str">
         <v>Ternopilska</v>
       </c>
-      <c r="C29" s="42">
+      <c r="C29" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!C26), ISBLANK(C$4)), "", 'Indicator Data'!C26 * C$4)</f>
         <v>0.60000000000000009</v>
       </c>
-      <c r="D29" s="42">
+      <c r="D29" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!D26), ISBLANK(D$4)), "", 'Indicator Data'!D26 * D$4)</f>
         <v>0.13999999999999999</v>
       </c>
-      <c r="E29" s="42">
+      <c r="E29" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!E26), ISBLANK(E$4)), "", 'Indicator Data'!E26 * E$4)</f>
         <v>0.13999999999999999</v>
       </c>
-      <c r="F29" s="42">
+      <c r="F29" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!F26), ISBLANK(F$4)), "", 'Indicator Data'!F26 * F$4)</f>
         <v>6.9999999999999993E-2</v>
       </c>
-      <c r="G29" s="42">
+      <c r="G29" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!G26), ISBLANK(G$4)), "", 'Indicator Data'!G26 * G$4)</f>
         <v>0.13999999999999999</v>
       </c>
-      <c r="H29" s="42">
+      <c r="H29" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!H26), ISBLANK(H$4)), "", 'Indicator Data'!H26 * H$4)</f>
         <v>0.20999999999999996</v>
       </c>
-      <c r="I29" s="42">
+      <c r="I29" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!I26), ISBLANK(I$4)), "", 'Indicator Data'!I26 * I$4)</f>
         <v>2.2500000000000003E-2</v>
       </c>
-      <c r="J29" s="42">
+      <c r="J29" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!J26), ISBLANK(J$4)), "", 'Indicator Data'!J26 * J$4)</f>
         <v>0.11250000000000002</v>
       </c>
-      <c r="K29" s="42">
+      <c r="K29" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!K26), ISBLANK(K$4)), "", 'Indicator Data'!K26 * K$4)</f>
         <v>2.2500000000000003E-2</v>
       </c>
-      <c r="L29" s="42">
+      <c r="L29" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!L26), ISBLANK(L$4)), "", 'Indicator Data'!L26 * L$4)</f>
         <v>2.2500000000000003E-2</v>
       </c>
-      <c r="M29" s="42">
+      <c r="M29" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!M26), ISBLANK(M$4)), "", 'Indicator Data'!M26 * M$4)</f>
         <v>4.5000000000000005E-2</v>
       </c>
-      <c r="N29" s="42">
+      <c r="N29" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!N26), ISBLANK(N$4)), "", 'Indicator Data'!N26 * N$4)</f>
         <v>9.0000000000000011E-2</v>
       </c>
-      <c r="O29" s="42">
+      <c r="O29" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!O26), ISBLANK(O$4)), "", 'Indicator Data'!O26 * O$4)</f>
         <v>9.0000000000000011E-2</v>
       </c>
-      <c r="P29" s="42">
+      <c r="P29" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!P26), ISBLANK(P$4)), "", 'Indicator Data'!P26 * P$4)</f>
         <v>0.1125</v>
       </c>
-      <c r="Q29" s="42">
+      <c r="Q29" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!Q26), ISBLANK(Q$4)), "", 'Indicator Data'!Q26 * Q$4)</f>
         <v>0.1125</v>
       </c>
@@ -16473,63 +16496,63 @@
       <c r="B30" s="14" t="str">
         <v>Vinnytska</v>
       </c>
-      <c r="C30" s="42">
+      <c r="C30" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!C27), ISBLANK(C$4)), "", 'Indicator Data'!C27 * C$4)</f>
         <v>0.60000000000000009</v>
       </c>
-      <c r="D30" s="42">
+      <c r="D30" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!D27), ISBLANK(D$4)), "", 'Indicator Data'!D27 * D$4)</f>
         <v>0.20999999999999996</v>
       </c>
-      <c r="E30" s="42">
+      <c r="E30" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!E27), ISBLANK(E$4)), "", 'Indicator Data'!E27 * E$4)</f>
         <v>0.20999999999999996</v>
       </c>
-      <c r="F30" s="42">
+      <c r="F30" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!F27), ISBLANK(F$4)), "", 'Indicator Data'!F27 * F$4)</f>
         <v>0.20999999999999996</v>
       </c>
-      <c r="G30" s="42">
+      <c r="G30" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!G27), ISBLANK(G$4)), "", 'Indicator Data'!G27 * G$4)</f>
         <v>0.27999999999999997</v>
       </c>
-      <c r="H30" s="42">
+      <c r="H30" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!H27), ISBLANK(H$4)), "", 'Indicator Data'!H27 * H$4)</f>
         <v>0.27999999999999997</v>
       </c>
-      <c r="I30" s="42">
+      <c r="I30" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!I27), ISBLANK(I$4)), "", 'Indicator Data'!I27 * I$4)</f>
         <v>4.5000000000000005E-2</v>
       </c>
-      <c r="J30" s="42">
+      <c r="J30" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!J27), ISBLANK(J$4)), "", 'Indicator Data'!J27 * J$4)</f>
         <v>6.7500000000000004E-2</v>
       </c>
-      <c r="K30" s="42">
+      <c r="K30" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!K27), ISBLANK(K$4)), "", 'Indicator Data'!K27 * K$4)</f>
         <v>2.2500000000000003E-2</v>
       </c>
-      <c r="L30" s="42">
+      <c r="L30" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!L27), ISBLANK(L$4)), "", 'Indicator Data'!L27 * L$4)</f>
         <v>2.2500000000000003E-2</v>
       </c>
-      <c r="M30" s="42">
+      <c r="M30" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!M27), ISBLANK(M$4)), "", 'Indicator Data'!M27 * M$4)</f>
         <v>2.2500000000000003E-2</v>
       </c>
-      <c r="N30" s="42">
+      <c r="N30" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!N27), ISBLANK(N$4)), "", 'Indicator Data'!N27 * N$4)</f>
         <v>6.7500000000000004E-2</v>
       </c>
-      <c r="O30" s="42">
+      <c r="O30" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!O27), ISBLANK(O$4)), "", 'Indicator Data'!O27 * O$4)</f>
         <v>9.0000000000000011E-2</v>
       </c>
-      <c r="P30" s="42">
+      <c r="P30" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!P27), ISBLANK(P$4)), "", 'Indicator Data'!P27 * P$4)</f>
         <v>0.22500000000000001</v>
       </c>
-      <c r="Q30" s="42">
+      <c r="Q30" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!Q27), ISBLANK(Q$4)), "", 'Indicator Data'!Q27 * Q$4)</f>
         <v>0.1125</v>
       </c>
@@ -16541,63 +16564,63 @@
       <c r="B31" s="14" t="str">
         <v>Volynska</v>
       </c>
-      <c r="C31" s="42">
+      <c r="C31" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!C28), ISBLANK(C$4)), "", 'Indicator Data'!C28 * C$4)</f>
         <v>0.60000000000000009</v>
       </c>
-      <c r="D31" s="42">
+      <c r="D31" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!D28), ISBLANK(D$4)), "", 'Indicator Data'!D28 * D$4)</f>
         <v>0.13999999999999999</v>
       </c>
-      <c r="E31" s="42">
+      <c r="E31" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!E28), ISBLANK(E$4)), "", 'Indicator Data'!E28 * E$4)</f>
         <v>0.13999999999999999</v>
       </c>
-      <c r="F31" s="42">
+      <c r="F31" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!F28), ISBLANK(F$4)), "", 'Indicator Data'!F28 * F$4)</f>
         <v>6.9999999999999993E-2</v>
       </c>
-      <c r="G31" s="42">
+      <c r="G31" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!G28), ISBLANK(G$4)), "", 'Indicator Data'!G28 * G$4)</f>
         <v>0.13999999999999999</v>
       </c>
-      <c r="H31" s="42">
+      <c r="H31" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!H28), ISBLANK(H$4)), "", 'Indicator Data'!H28 * H$4)</f>
         <v>0.13999999999999999</v>
       </c>
-      <c r="I31" s="42">
+      <c r="I31" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!I28), ISBLANK(I$4)), "", 'Indicator Data'!I28 * I$4)</f>
         <v>4.5000000000000005E-2</v>
       </c>
-      <c r="J31" s="42">
+      <c r="J31" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!J28), ISBLANK(J$4)), "", 'Indicator Data'!J28 * J$4)</f>
         <v>6.7500000000000004E-2</v>
       </c>
-      <c r="K31" s="42">
+      <c r="K31" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!K28), ISBLANK(K$4)), "", 'Indicator Data'!K28 * K$4)</f>
         <v>2.2500000000000003E-2</v>
       </c>
-      <c r="L31" s="42">
+      <c r="L31" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!L28), ISBLANK(L$4)), "", 'Indicator Data'!L28 * L$4)</f>
         <v>2.2500000000000003E-2</v>
       </c>
-      <c r="M31" s="42">
+      <c r="M31" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!M28), ISBLANK(M$4)), "", 'Indicator Data'!M28 * M$4)</f>
         <v>4.5000000000000005E-2</v>
       </c>
-      <c r="N31" s="42">
+      <c r="N31" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!N28), ISBLANK(N$4)), "", 'Indicator Data'!N28 * N$4)</f>
         <v>9.0000000000000011E-2</v>
       </c>
-      <c r="O31" s="42">
+      <c r="O31" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!O28), ISBLANK(O$4)), "", 'Indicator Data'!O28 * O$4)</f>
         <v>9.0000000000000011E-2</v>
       </c>
-      <c r="P31" s="42">
+      <c r="P31" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!P28), ISBLANK(P$4)), "", 'Indicator Data'!P28 * P$4)</f>
         <v>0.1125</v>
       </c>
-      <c r="Q31" s="42">
+      <c r="Q31" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!Q28), ISBLANK(Q$4)), "", 'Indicator Data'!Q28 * Q$4)</f>
         <v>0.1125</v>
       </c>
@@ -16609,63 +16632,63 @@
       <c r="B32" s="14" t="str">
         <v>Zakarpatska</v>
       </c>
-      <c r="C32" s="42">
+      <c r="C32" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!C29), ISBLANK(C$4)), "", 'Indicator Data'!C29 * C$4)</f>
         <v>0.8</v>
       </c>
-      <c r="D32" s="42">
+      <c r="D32" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!D29), ISBLANK(D$4)), "", 'Indicator Data'!D29 * D$4)</f>
         <v>0.13999999999999999</v>
       </c>
-      <c r="E32" s="42">
+      <c r="E32" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!E29), ISBLANK(E$4)), "", 'Indicator Data'!E29 * E$4)</f>
         <v>0.20999999999999996</v>
       </c>
-      <c r="F32" s="42">
+      <c r="F32" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!F29), ISBLANK(F$4)), "", 'Indicator Data'!F29 * F$4)</f>
         <v>0.20999999999999996</v>
       </c>
-      <c r="G32" s="42">
+      <c r="G32" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!G29), ISBLANK(G$4)), "", 'Indicator Data'!G29 * G$4)</f>
         <v>0.27999999999999997</v>
       </c>
-      <c r="H32" s="42">
+      <c r="H32" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!H29), ISBLANK(H$4)), "", 'Indicator Data'!H29 * H$4)</f>
         <v>6.9999999999999993E-2</v>
       </c>
-      <c r="I32" s="42">
+      <c r="I32" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!I29), ISBLANK(I$4)), "", 'Indicator Data'!I29 * I$4)</f>
         <v>6.7500000000000004E-2</v>
       </c>
-      <c r="J32" s="42">
+      <c r="J32" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!J29), ISBLANK(J$4)), "", 'Indicator Data'!J29 * J$4)</f>
         <v>4.5000000000000005E-2</v>
       </c>
-      <c r="K32" s="42">
+      <c r="K32" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!K29), ISBLANK(K$4)), "", 'Indicator Data'!K29 * K$4)</f>
         <v>2.2500000000000003E-2</v>
       </c>
-      <c r="L32" s="42">
+      <c r="L32" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!L29), ISBLANK(L$4)), "", 'Indicator Data'!L29 * L$4)</f>
         <v>4.5000000000000005E-2</v>
       </c>
-      <c r="M32" s="42">
+      <c r="M32" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!M29), ISBLANK(M$4)), "", 'Indicator Data'!M29 * M$4)</f>
         <v>2.2500000000000003E-2</v>
       </c>
-      <c r="N32" s="42">
+      <c r="N32" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!N29), ISBLANK(N$4)), "", 'Indicator Data'!N29 * N$4)</f>
         <v>9.0000000000000011E-2</v>
       </c>
-      <c r="O32" s="42">
+      <c r="O32" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!O29), ISBLANK(O$4)), "", 'Indicator Data'!O29 * O$4)</f>
         <v>9.0000000000000011E-2</v>
       </c>
-      <c r="P32" s="42">
+      <c r="P32" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!P29), ISBLANK(P$4)), "", 'Indicator Data'!P29 * P$4)</f>
         <v>0.1125</v>
       </c>
-      <c r="Q32" s="42">
+      <c r="Q32" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!Q29), ISBLANK(Q$4)), "", 'Indicator Data'!Q29 * Q$4)</f>
         <v>0.1125</v>
       </c>
@@ -16677,63 +16700,63 @@
       <c r="B33" s="14" t="str">
         <v>Zaporizka</v>
       </c>
-      <c r="C33" s="42">
+      <c r="C33" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!C30), ISBLANK(C$4)), "", 'Indicator Data'!C30 * C$4)</f>
         <v>0.60000000000000009</v>
       </c>
-      <c r="D33" s="42">
+      <c r="D33" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!D30), ISBLANK(D$4)), "", 'Indicator Data'!D30 * D$4)</f>
         <v>0.20999999999999996</v>
       </c>
-      <c r="E33" s="42">
+      <c r="E33" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!E30), ISBLANK(E$4)), "", 'Indicator Data'!E30 * E$4)</f>
         <v>0.13999999999999999</v>
       </c>
-      <c r="F33" s="42">
+      <c r="F33" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!F30), ISBLANK(F$4)), "", 'Indicator Data'!F30 * F$4)</f>
         <v>0.27999999999999997</v>
       </c>
-      <c r="G33" s="42">
+      <c r="G33" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!G30), ISBLANK(G$4)), "", 'Indicator Data'!G30 * G$4)</f>
         <v>0.27999999999999997</v>
       </c>
-      <c r="H33" s="42" t="str">
+      <c r="H33" s="38" t="str">
         <f>IF(OR(ISBLANK('Indicator Data'!H30), ISBLANK(H$4)), "", 'Indicator Data'!H30 * H$4)</f>
         <v/>
       </c>
-      <c r="I33" s="42">
+      <c r="I33" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!I30), ISBLANK(I$4)), "", 'Indicator Data'!I30 * I$4)</f>
         <v>9.0000000000000011E-2</v>
       </c>
-      <c r="J33" s="42">
+      <c r="J33" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!J30), ISBLANK(J$4)), "", 'Indicator Data'!J30 * J$4)</f>
         <v>9.0000000000000011E-2</v>
       </c>
-      <c r="K33" s="42">
+      <c r="K33" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!K30), ISBLANK(K$4)), "", 'Indicator Data'!K30 * K$4)</f>
         <v>0.11250000000000002</v>
       </c>
-      <c r="L33" s="42">
+      <c r="L33" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!L30), ISBLANK(L$4)), "", 'Indicator Data'!L30 * L$4)</f>
         <v>0.11250000000000002</v>
       </c>
-      <c r="M33" s="42">
+      <c r="M33" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!M30), ISBLANK(M$4)), "", 'Indicator Data'!M30 * M$4)</f>
         <v>0.11250000000000002</v>
       </c>
-      <c r="N33" s="42">
+      <c r="N33" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!N30), ISBLANK(N$4)), "", 'Indicator Data'!N30 * N$4)</f>
         <v>4.5000000000000005E-2</v>
       </c>
-      <c r="O33" s="42">
+      <c r="O33" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!O30), ISBLANK(O$4)), "", 'Indicator Data'!O30 * O$4)</f>
         <v>0.36000000000000004</v>
       </c>
-      <c r="P33" s="42">
+      <c r="P33" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!P30), ISBLANK(P$4)), "", 'Indicator Data'!P30 * P$4)</f>
         <v>0.22500000000000001</v>
       </c>
-      <c r="Q33" s="42">
+      <c r="Q33" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!Q30), ISBLANK(Q$4)), "", 'Indicator Data'!Q30 * Q$4)</f>
         <v>0.5625</v>
       </c>
@@ -16745,63 +16768,63 @@
       <c r="B34" s="14" t="str">
         <v>Zhytomyrska</v>
       </c>
-      <c r="C34" s="42">
+      <c r="C34" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!C31), ISBLANK(C$4)), "", 'Indicator Data'!C31 * C$4)</f>
         <v>0.8</v>
       </c>
-      <c r="D34" s="42">
+      <c r="D34" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!D31), ISBLANK(D$4)), "", 'Indicator Data'!D31 * D$4)</f>
         <v>0.20999999999999996</v>
       </c>
-      <c r="E34" s="42">
+      <c r="E34" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!E31), ISBLANK(E$4)), "", 'Indicator Data'!E31 * E$4)</f>
         <v>0.13999999999999999</v>
       </c>
-      <c r="F34" s="42">
+      <c r="F34" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!F31), ISBLANK(F$4)), "", 'Indicator Data'!F31 * F$4)</f>
         <v>0.27999999999999997</v>
       </c>
-      <c r="G34" s="42">
+      <c r="G34" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!G31), ISBLANK(G$4)), "", 'Indicator Data'!G31 * G$4)</f>
         <v>0.13999999999999999</v>
       </c>
-      <c r="H34" s="42">
+      <c r="H34" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!H31), ISBLANK(H$4)), "", 'Indicator Data'!H31 * H$4)</f>
         <v>0.20999999999999996</v>
       </c>
-      <c r="I34" s="42">
+      <c r="I34" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!I31), ISBLANK(I$4)), "", 'Indicator Data'!I31 * I$4)</f>
         <v>4.5000000000000005E-2</v>
       </c>
-      <c r="J34" s="42">
+      <c r="J34" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!J31), ISBLANK(J$4)), "", 'Indicator Data'!J31 * J$4)</f>
         <v>6.7500000000000004E-2</v>
       </c>
-      <c r="K34" s="42">
+      <c r="K34" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!K31), ISBLANK(K$4)), "", 'Indicator Data'!K31 * K$4)</f>
         <v>4.5000000000000005E-2</v>
       </c>
-      <c r="L34" s="42">
+      <c r="L34" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!L31), ISBLANK(L$4)), "", 'Indicator Data'!L31 * L$4)</f>
         <v>6.7500000000000004E-2</v>
       </c>
-      <c r="M34" s="42">
+      <c r="M34" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!M31), ISBLANK(M$4)), "", 'Indicator Data'!M31 * M$4)</f>
         <v>2.2500000000000003E-2</v>
       </c>
-      <c r="N34" s="42">
+      <c r="N34" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!N31), ISBLANK(N$4)), "", 'Indicator Data'!N31 * N$4)</f>
         <v>6.7500000000000004E-2</v>
       </c>
-      <c r="O34" s="42">
+      <c r="O34" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!O31), ISBLANK(O$4)), "", 'Indicator Data'!O31 * O$4)</f>
         <v>0.27</v>
       </c>
-      <c r="P34" s="42">
+      <c r="P34" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!P31), ISBLANK(P$4)), "", 'Indicator Data'!P31 * P$4)</f>
         <v>0.22500000000000001</v>
       </c>
-      <c r="Q34" s="42">
+      <c r="Q34" s="38">
         <f>IF(OR(ISBLANK('Indicator Data'!Q31), ISBLANK(Q$4)), "", 'Indicator Data'!Q31 * Q$4)</f>
         <v>0.33750000000000002</v>
       </c>
@@ -16828,10 +16851,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8145C34-C5F9-9843-B221-F18C2AA209F7}">
+  <sheetPr>
+    <tabColor rgb="FFD9EAD3"/>
+  </sheetPr>
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -16839,7 +16865,7 @@
     <col min="1" max="1" width="12.1640625" style="14" customWidth="1"/>
     <col min="2" max="2" width="26.33203125" style="14" customWidth="1"/>
     <col min="3" max="5" width="11" style="14" customWidth="1"/>
-    <col min="6" max="6" width="11" style="38" customWidth="1"/>
+    <col min="6" max="6" width="11" style="34" customWidth="1"/>
     <col min="7" max="16384" width="10.83203125" style="14"/>
   </cols>
   <sheetData>
@@ -16896,7 +16922,7 @@
 )</f>
         <v/>
       </c>
-      <c r="F2" s="37" t="str" cm="1">
+      <c r="F2" s="33" t="str" cm="1">
         <f t="array" ref="F2">IF(SUMPRODUCT(--(C2:E2&lt;&gt;""))=0, "-", SUM(C2:E2))</f>
         <v>-</v>
       </c>
@@ -16932,7 +16958,7 @@
 )</f>
         <v>0.72000000000000008</v>
       </c>
-      <c r="F3" s="37" cm="1">
+      <c r="F3" s="33" cm="1">
         <f t="array" ref="F3">IF(SUMPRODUCT(--(C3:E3&lt;&gt;""))=0, "-", SUM(C3:E3))</f>
         <v>2.5674999999999999</v>
       </c>
@@ -16968,7 +16994,7 @@
 )</f>
         <v>1.2375</v>
       </c>
-      <c r="F4" s="37" cm="1">
+      <c r="F4" s="33" cm="1">
         <f t="array" ref="F4">IF(SUMPRODUCT(--(C4:E4&lt;&gt;""))=0, "-", SUM(C4:E4))</f>
         <v>3.3549999999999995</v>
       </c>
@@ -17004,7 +17030,7 @@
 )</f>
         <v>0.5625</v>
       </c>
-      <c r="F5" s="37" cm="1">
+      <c r="F5" s="33" cm="1">
         <f t="array" ref="F5">IF(SUMPRODUCT(--(C5:E5&lt;&gt;""))=0, "-", SUM(C5:E5))</f>
         <v>2.085</v>
       </c>
@@ -17040,7 +17066,7 @@
 )</f>
         <v/>
       </c>
-      <c r="F6" s="37" t="str" cm="1">
+      <c r="F6" s="33" t="str" cm="1">
         <f t="array" ref="F6">IF(SUMPRODUCT(--(C6:E6&lt;&gt;""))=0, "-", SUM(C6:E6))</f>
         <v>-</v>
       </c>
@@ -17076,7 +17102,7 @@
 )</f>
         <v>1.2375</v>
       </c>
-      <c r="F7" s="37" cm="1">
+      <c r="F7" s="33" cm="1">
         <f t="array" ref="F7">IF(SUMPRODUCT(--(C7:E7&lt;&gt;""))=0, "-", SUM(C7:E7))</f>
         <v>3.375</v>
       </c>
@@ -17112,7 +17138,7 @@
 )</f>
         <v>2.0475000000000003</v>
       </c>
-      <c r="F8" s="37" cm="1">
+      <c r="F8" s="33" cm="1">
         <f t="array" ref="F8">IF(SUMPRODUCT(--(C8:E8&lt;&gt;""))=0, "-", SUM(C8:E8))</f>
         <v>3.6850000000000005</v>
       </c>
@@ -17148,7 +17174,7 @@
 )</f>
         <v>0.76500000000000012</v>
       </c>
-      <c r="F9" s="37" cm="1">
+      <c r="F9" s="33" cm="1">
         <f t="array" ref="F9">IF(SUMPRODUCT(--(C9:E9&lt;&gt;""))=0, "-", SUM(C9:E9))</f>
         <v>2.52</v>
       </c>
@@ -17184,7 +17210,7 @@
 )</f>
         <v>1.8900000000000001</v>
       </c>
-      <c r="F10" s="37" cm="1">
+      <c r="F10" s="33" cm="1">
         <f t="array" ref="F10">IF(SUMPRODUCT(--(C10:E10&lt;&gt;""))=0, "-", SUM(C10:E10))</f>
         <v>4.2650000000000006</v>
       </c>
@@ -17220,7 +17246,7 @@
 )</f>
         <v>2.0700000000000003</v>
       </c>
-      <c r="F11" s="37" cm="1">
+      <c r="F11" s="33" cm="1">
         <f t="array" ref="F11">IF(SUMPRODUCT(--(C11:E11&lt;&gt;""))=0, "-", SUM(C11:E11))</f>
         <v>2.8625000000000003</v>
       </c>
@@ -17256,7 +17282,7 @@
 )</f>
         <v>0.5625</v>
       </c>
-      <c r="F12" s="37" cm="1">
+      <c r="F12" s="33" cm="1">
         <f t="array" ref="F12">IF(SUMPRODUCT(--(C12:E12&lt;&gt;""))=0, "-", SUM(C12:E12))</f>
         <v>2.27</v>
       </c>
@@ -17292,7 +17318,7 @@
 )</f>
         <v>0.81000000000000016</v>
       </c>
-      <c r="F13" s="37" cm="1">
+      <c r="F13" s="33" cm="1">
         <f t="array" ref="F13">IF(SUMPRODUCT(--(C13:E13&lt;&gt;""))=0, "-", SUM(C13:E13))</f>
         <v>2.1525000000000003</v>
       </c>
@@ -17328,7 +17354,7 @@
 )</f>
         <v>0.9900000000000001</v>
       </c>
-      <c r="F14" s="37" cm="1">
+      <c r="F14" s="33" cm="1">
         <f t="array" ref="F14">IF(SUMPRODUCT(--(C14:E14&lt;&gt;""))=0, "-", SUM(C14:E14))</f>
         <v>3.35</v>
       </c>
@@ -17340,33 +17366,33 @@
       <c r="B15" s="14" t="str">
         <v>Luhanska</v>
       </c>
-      <c r="C15" s="29" cm="1">
+      <c r="C15" s="29" t="str" cm="1">
         <f t="array" ref="C15">IF(
    SUMPRODUCT( ('Composite Indicator Matrix'!$1:$1 = C$1) * ('Composite Indicator Matrix'!20:20 &lt;&gt; "") ) = 0,
    "",
    SUMIF('Composite Indicator Matrix'!$1:$1, C$1, 'Composite Indicator Matrix'!20:20)
 )</f>
-        <v>1.1399999999999999</v>
-      </c>
-      <c r="D15" s="29" cm="1">
+        <v/>
+      </c>
+      <c r="D15" s="29" t="str" cm="1">
         <f t="array" ref="D15">IF(
    SUMPRODUCT( ('Composite Indicator Matrix'!$1:$1 = D$1) * ('Composite Indicator Matrix'!20:20 &lt;&gt; "") ) = 0,
    "",
    SUMIF('Composite Indicator Matrix'!$1:$1, D$1, 'Composite Indicator Matrix'!20:20)
 )</f>
-        <v>0.42</v>
-      </c>
-      <c r="E15" s="29" cm="1">
+        <v/>
+      </c>
+      <c r="E15" s="29" t="str" cm="1">
         <f t="array" ref="E15">IF(
    SUMPRODUCT( ('Composite Indicator Matrix'!$1:$1 = E$1) * ('Composite Indicator Matrix'!20:20 &lt;&gt; "") ) = 0,
    "",
    SUMIF('Composite Indicator Matrix'!$1:$1, E$1, 'Composite Indicator Matrix'!20:20)
 )</f>
-        <v>0.90000000000000013</v>
-      </c>
-      <c r="F15" s="37" cm="1">
+        <v/>
+      </c>
+      <c r="F15" s="33" t="str" cm="1">
         <f t="array" ref="F15">IF(SUMPRODUCT(--(C15:E15&lt;&gt;""))=0, "-", SUM(C15:E15))</f>
-        <v>2.46</v>
+        <v>-</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -17400,7 +17426,7 @@
 )</f>
         <v>0.54</v>
       </c>
-      <c r="F16" s="37" cm="1">
+      <c r="F16" s="33" cm="1">
         <f t="array" ref="F16">IF(SUMPRODUCT(--(C16:E16&lt;&gt;""))=0, "-", SUM(C16:E16))</f>
         <v>2.5149999999999997</v>
       </c>
@@ -17436,7 +17462,7 @@
 )</f>
         <v>1.44</v>
       </c>
-      <c r="F17" s="37" cm="1">
+      <c r="F17" s="33" cm="1">
         <f t="array" ref="F17">IF(SUMPRODUCT(--(C17:E17&lt;&gt;""))=0, "-", SUM(C17:E17))</f>
         <v>3.7075</v>
       </c>
@@ -17472,7 +17498,7 @@
 )</f>
         <v/>
       </c>
-      <c r="F18" s="37" t="str" cm="1">
+      <c r="F18" s="33" t="str" cm="1">
         <f t="array" ref="F18">IF(SUMPRODUCT(--(C18:E18&lt;&gt;""))=0, "-", SUM(C18:E18))</f>
         <v>-</v>
       </c>
@@ -17508,7 +17534,7 @@
 )</f>
         <v>1.4849999999999999</v>
       </c>
-      <c r="F19" s="37" cm="1">
+      <c r="F19" s="33" cm="1">
         <f t="array" ref="F19">IF(SUMPRODUCT(--(C19:E19&lt;&gt;""))=0, "-", SUM(C19:E19))</f>
         <v>3.0375000000000001</v>
       </c>
@@ -17544,7 +17570,7 @@
 )</f>
         <v>1.3275000000000001</v>
       </c>
-      <c r="F20" s="37" cm="1">
+      <c r="F20" s="33" cm="1">
         <f t="array" ref="F20">IF(SUMPRODUCT(--(C20:E20&lt;&gt;""))=0, "-", SUM(C20:E20))</f>
         <v>3.1950000000000003</v>
       </c>
@@ -17580,7 +17606,7 @@
 )</f>
         <v>0.83250000000000013</v>
       </c>
-      <c r="F21" s="37" cm="1">
+      <c r="F21" s="33" cm="1">
         <f t="array" ref="F21">IF(SUMPRODUCT(--(C21:E21&lt;&gt;""))=0, "-", SUM(C21:E21))</f>
         <v>2.75</v>
       </c>
@@ -17616,7 +17642,7 @@
 )</f>
         <v>0.81</v>
       </c>
-      <c r="F22" s="37" cm="1">
+      <c r="F22" s="33" cm="1">
         <f t="array" ref="F22">IF(SUMPRODUCT(--(C22:E22&lt;&gt;""))=0, "-", SUM(C22:E22))</f>
         <v>2.355</v>
       </c>
@@ -17652,7 +17678,7 @@
 )</f>
         <v>1.2150000000000001</v>
       </c>
-      <c r="F23" s="37" cm="1">
+      <c r="F23" s="33" cm="1">
         <f t="array" ref="F23">IF(SUMPRODUCT(--(C23:E23&lt;&gt;""))=0, "-", SUM(C23:E23))</f>
         <v>3.2175000000000002</v>
       </c>
@@ -17688,7 +17714,7 @@
 )</f>
         <v>0.60750000000000004</v>
       </c>
-      <c r="F24" s="37" cm="1">
+      <c r="F24" s="33" cm="1">
         <f t="array" ref="F24">IF(SUMPRODUCT(--(C24:E24&lt;&gt;""))=0, "-", SUM(C24:E24))</f>
         <v>1.9300000000000002</v>
       </c>
@@ -17724,7 +17750,7 @@
 )</f>
         <v>0.63000000000000012</v>
       </c>
-      <c r="F25" s="37" cm="1">
+      <c r="F25" s="33" cm="1">
         <f t="array" ref="F25">IF(SUMPRODUCT(--(C25:E25&lt;&gt;""))=0, "-", SUM(C25:E25))</f>
         <v>2.4649999999999999</v>
       </c>
@@ -17760,7 +17786,7 @@
 )</f>
         <v>0.56250000000000011</v>
       </c>
-      <c r="F26" s="37" cm="1">
+      <c r="F26" s="33" cm="1">
         <f t="array" ref="F26">IF(SUMPRODUCT(--(C26:E26&lt;&gt;""))=0, "-", SUM(C26:E26))</f>
         <v>1.8375000000000004</v>
       </c>
@@ -17796,7 +17822,7 @@
 )</f>
         <v>0.54</v>
       </c>
-      <c r="F27" s="37" cm="1">
+      <c r="F27" s="33" cm="1">
         <f t="array" ref="F27">IF(SUMPRODUCT(--(C27:E27&lt;&gt;""))=0, "-", SUM(C27:E27))</f>
         <v>2.3174999999999999</v>
       </c>
@@ -17832,7 +17858,7 @@
 )</f>
         <v>1.62</v>
       </c>
-      <c r="F28" s="37" cm="1">
+      <c r="F28" s="33" cm="1">
         <f t="array" ref="F28">IF(SUMPRODUCT(--(C28:E28&lt;&gt;""))=0, "-", SUM(C28:E28))</f>
         <v>3.22</v>
       </c>
@@ -17868,7 +17894,7 @@
 )</f>
         <v>1.1025</v>
       </c>
-      <c r="F29" s="37" cm="1">
+      <c r="F29" s="33" cm="1">
         <f t="array" ref="F29">IF(SUMPRODUCT(--(C29:E29&lt;&gt;""))=0, "-", SUM(C29:E29))</f>
         <v>2.9275000000000002</v>
       </c>
@@ -17892,10 +17918,13 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E1FCF2F-B32A-784C-A09B-6B7087BC2E46}">
+  <sheetPr>
+    <tabColor rgb="FFE6E6E6"/>
+  </sheetPr>
   <dimension ref="A1:D3131"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="C2851" sqref="C2851"/>
+      <selection activeCell="D2861" sqref="D2861"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/data/WHO Seasonal Risk Assessment Tool (SAMPLE).xlsx
+++ b/data/WHO Seasonal Risk Assessment Tool (SAMPLE).xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/steve.kerr/Documents/GitHub/riskassess/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05CB575A-F822-D647-B4B7-B3220AB565D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{491591A8-36F8-3E49-9454-55ABDECEF931}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17120" yWindow="-20980" windowWidth="38400" windowHeight="20980" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="680" windowWidth="30240" windowHeight="18960" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="README" sheetId="1" r:id="rId1"/>
+    <sheet name="Instructions" sheetId="1" r:id="rId1"/>
     <sheet name="Indicator Metadata" sheetId="8" r:id="rId2"/>
     <sheet name="Indicator Data" sheetId="12" r:id="rId3"/>
     <sheet name="Pillar Weights" sheetId="15" r:id="rId4"/>
@@ -10436,7 +10436,8 @@
     <t>Administrative Level 1</t>
   </si>
   <si>
-    <t>TOTAL</t>
+    <t>Composite 
+Risk Scores</t>
   </si>
 </sst>
 </file>
@@ -10664,6 +10665,7 @@
     <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -10676,7 +10678,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -11688,7 +11689,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="125" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -11704,11 +11705,11 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="238.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
     </row>
     <row r="3" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
@@ -11766,11 +11767,11 @@
       </c>
     </row>
     <row r="8" spans="1:3" ht="108" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="42" t="s">
+      <c r="A8" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="43"/>
-      <c r="C8" s="43"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -11790,7 +11791,7 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="117" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -12375,7 +12376,7 @@
         <v>LOCC</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="137" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" ht="138" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
         <v>49</v>
       </c>
@@ -14475,7 +14476,7 @@
   </sheetPr>
   <dimension ref="A1:T34"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="118" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScale="118" workbookViewId="0">
       <selection activeCell="S8" sqref="S8"/>
     </sheetView>
   </sheetViews>
@@ -15603,7 +15604,7 @@
         <f>IF(OR(ISBLANK('Indicator Data'!Q13), ISBLANK(Q$4)), "", 'Indicator Data'!Q13 * Q$4)</f>
         <v>0.5625</v>
       </c>
-      <c r="T16" s="44"/>
+      <c r="T16" s="40"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" s="14" t="str">
@@ -16857,7 +16858,7 @@
   <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -16865,27 +16866,27 @@
     <col min="1" max="1" width="12.1640625" style="14" customWidth="1"/>
     <col min="2" max="2" width="26.33203125" style="14" customWidth="1"/>
     <col min="3" max="5" width="11" style="14" customWidth="1"/>
-    <col min="6" max="6" width="11" style="34" customWidth="1"/>
+    <col min="6" max="6" width="10.1640625" style="34" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="10.83203125" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:6" s="13" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A1" s="18" t="s">
         <v>3386</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="18" t="s">
         <v>3385</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="18" t="s">
         <v>3389</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="22" t="s">
         <v>3395</v>
       </c>
     </row>
